--- a/script/summary/summary_grey_v2.xlsx
+++ b/script/summary/summary_grey_v2.xlsx
@@ -76,607 +76,607 @@
     <t>grey_v2</t>
   </si>
   <si>
-    <t>2023-05-31 12:16:41 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 12:18:14 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 12:19:47 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 12:21:20 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 12:22:53 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 12:24:26 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 12:25:59 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 12:27:32 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 12:29:05 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 12:30:39 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 12:32:12 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 12:33:45 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 12:35:18 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 12:36:52 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 12:38:26 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 12:39:59 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 12:41:34 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 12:43:08 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 12:44:41 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 12:46:16 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 12:47:49 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 12:49:23 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 12:50:57 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 12:52:31 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 12:54:05 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 12:55:39 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 12:57:12 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 12:58:45 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 13:00:18 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 13:11:51 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 13:13:24 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 13:14:57 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 13:16:30 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 13:18:03 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 13:19:36 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 13:21:10 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 13:22:43 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 13:24:16 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 13:25:49 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 13:27:22 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 13:28:55 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 13:30:28 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 13:32:01 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 13:33:35 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 13:35:08 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 13:36:41 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 13:38:14 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 13:39:47 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 13:41:20 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 13:42:53 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 13:44:26 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 13:45:59 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 13:47:33 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 13:49:07 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 13:50:41 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 13:52:14 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 13:53:48 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 13:55:22 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 13:56:56 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 13:58:29 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 14:00:04 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 14:01:38 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 14:03:12 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 14:04:46 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 14:06:20 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 14:07:54 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 14:09:28 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 14:21:02 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 14:22:36 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 14:24:10 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 14:25:44 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 14:27:18 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 14:28:52 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 14:40:26 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 14:42:00 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 14:43:34 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 14:45:07 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 14:46:40 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 14:48:14 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 14:49:48 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 14:51:22 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 14:52:56 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 14:54:30 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 14:56:04 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 14:57:39 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 14:59:13 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 15:00:48 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 15:02:22 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 15:03:56 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 15:05:31 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 15:07:05 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 15:08:39 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 15:10:13 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 15:11:47 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 15:13:21 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 15:14:54 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 15:16:28 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 15:18:02 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 15:19:36 WIB</t>
-  </si>
-  <si>
-    <t>2023-05-31 15:21:10 WIB</t>
-  </si>
-  <si>
-    <t>1685510201</t>
-  </si>
-  <si>
-    <t>1685510294</t>
-  </si>
-  <si>
-    <t>1685510387</t>
-  </si>
-  <si>
-    <t>1685510480</t>
-  </si>
-  <si>
-    <t>1685510573</t>
-  </si>
-  <si>
-    <t>1685510666</t>
-  </si>
-  <si>
-    <t>1685510759</t>
-  </si>
-  <si>
-    <t>1685510852</t>
-  </si>
-  <si>
-    <t>1685510945</t>
-  </si>
-  <si>
-    <t>1685511039</t>
-  </si>
-  <si>
-    <t>1685511132</t>
-  </si>
-  <si>
-    <t>1685511225</t>
-  </si>
-  <si>
-    <t>1685511318</t>
-  </si>
-  <si>
-    <t>1685511412</t>
-  </si>
-  <si>
-    <t>1685511506</t>
-  </si>
-  <si>
-    <t>1685511599</t>
-  </si>
-  <si>
-    <t>1685511694</t>
-  </si>
-  <si>
-    <t>1685511788</t>
-  </si>
-  <si>
-    <t>1685511881</t>
-  </si>
-  <si>
-    <t>1685511976</t>
-  </si>
-  <si>
-    <t>1685512069</t>
-  </si>
-  <si>
-    <t>1685512163</t>
-  </si>
-  <si>
-    <t>1685512257</t>
-  </si>
-  <si>
-    <t>1685512351</t>
-  </si>
-  <si>
-    <t>1685512445</t>
-  </si>
-  <si>
-    <t>1685512539</t>
-  </si>
-  <si>
-    <t>1685512632</t>
-  </si>
-  <si>
-    <t>1685512725</t>
-  </si>
-  <si>
-    <t>1685512818</t>
-  </si>
-  <si>
-    <t>1685513511</t>
-  </si>
-  <si>
-    <t>1685513604</t>
-  </si>
-  <si>
-    <t>1685513697</t>
-  </si>
-  <si>
-    <t>1685513790</t>
-  </si>
-  <si>
-    <t>1685513883</t>
-  </si>
-  <si>
-    <t>1685513976</t>
-  </si>
-  <si>
-    <t>1685514070</t>
-  </si>
-  <si>
-    <t>1685514163</t>
-  </si>
-  <si>
-    <t>1685514256</t>
-  </si>
-  <si>
-    <t>1685514349</t>
-  </si>
-  <si>
-    <t>1685514442</t>
-  </si>
-  <si>
-    <t>1685514535</t>
-  </si>
-  <si>
-    <t>1685514628</t>
-  </si>
-  <si>
-    <t>1685514721</t>
-  </si>
-  <si>
-    <t>1685514815</t>
-  </si>
-  <si>
-    <t>1685514908</t>
-  </si>
-  <si>
-    <t>1685515001</t>
-  </si>
-  <si>
-    <t>1685515094</t>
-  </si>
-  <si>
-    <t>1685515187</t>
-  </si>
-  <si>
-    <t>1685515280</t>
-  </si>
-  <si>
-    <t>1685515373</t>
-  </si>
-  <si>
-    <t>1685515466</t>
-  </si>
-  <si>
-    <t>1685515559</t>
-  </si>
-  <si>
-    <t>1685515653</t>
-  </si>
-  <si>
-    <t>1685515747</t>
-  </si>
-  <si>
-    <t>1685515841</t>
-  </si>
-  <si>
-    <t>1685515934</t>
-  </si>
-  <si>
-    <t>1685516028</t>
-  </si>
-  <si>
-    <t>1685516122</t>
-  </si>
-  <si>
-    <t>1685516216</t>
-  </si>
-  <si>
-    <t>1685516309</t>
-  </si>
-  <si>
-    <t>1685516404</t>
-  </si>
-  <si>
-    <t>1685516498</t>
-  </si>
-  <si>
-    <t>1685516592</t>
-  </si>
-  <si>
-    <t>1685516686</t>
-  </si>
-  <si>
-    <t>1685516780</t>
-  </si>
-  <si>
-    <t>1685516874</t>
-  </si>
-  <si>
-    <t>1685516968</t>
-  </si>
-  <si>
-    <t>1685517662</t>
-  </si>
-  <si>
-    <t>1685517756</t>
-  </si>
-  <si>
-    <t>1685517850</t>
-  </si>
-  <si>
-    <t>1685517944</t>
-  </si>
-  <si>
-    <t>1685518038</t>
-  </si>
-  <si>
-    <t>1685518132</t>
-  </si>
-  <si>
-    <t>1685518826</t>
-  </si>
-  <si>
-    <t>1685518920</t>
-  </si>
-  <si>
-    <t>1685519014</t>
-  </si>
-  <si>
-    <t>1685519107</t>
-  </si>
-  <si>
-    <t>1685519200</t>
-  </si>
-  <si>
-    <t>1685519294</t>
-  </si>
-  <si>
-    <t>1685519388</t>
-  </si>
-  <si>
-    <t>1685519482</t>
-  </si>
-  <si>
-    <t>1685519576</t>
-  </si>
-  <si>
-    <t>1685519670</t>
-  </si>
-  <si>
-    <t>1685519764</t>
-  </si>
-  <si>
-    <t>1685519859</t>
-  </si>
-  <si>
-    <t>1685519953</t>
-  </si>
-  <si>
-    <t>1685520048</t>
-  </si>
-  <si>
-    <t>1685520142</t>
-  </si>
-  <si>
-    <t>1685520236</t>
-  </si>
-  <si>
-    <t>1685520331</t>
-  </si>
-  <si>
-    <t>1685520425</t>
-  </si>
-  <si>
-    <t>1685520519</t>
-  </si>
-  <si>
-    <t>1685520613</t>
-  </si>
-  <si>
-    <t>1685520707</t>
-  </si>
-  <si>
-    <t>1685520801</t>
-  </si>
-  <si>
-    <t>1685520894</t>
-  </si>
-  <si>
-    <t>1685520988</t>
-  </si>
-  <si>
-    <t>1685521082</t>
-  </si>
-  <si>
-    <t>1685521176</t>
-  </si>
-  <si>
-    <t>1685521270</t>
-  </si>
-  <si>
-    <t>GET /node</t>
+    <t>2023-06-29 20:18:52 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 20:20:25 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 20:21:58 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 20:23:31 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 20:25:04 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 20:26:37 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 20:28:10 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 20:29:43 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 20:41:16 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 20:42:49 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 20:44:22 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 20:45:55 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 20:47:28 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 20:49:01 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 20:50:35 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 20:52:08 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 20:53:41 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 20:55:14 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 20:56:47 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 20:58:20 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 20:59:53 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:01:27 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:03:00 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:04:33 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:06:06 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:07:40 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:09:13 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:10:46 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:12:19 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:13:52 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:15:25 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:16:58 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:18:31 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:20:04 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:21:37 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:23:10 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:24:43 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:26:16 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:27:49 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:29:22 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:30:55 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:32:28 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:34:01 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:35:35 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:37:08 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:38:41 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:40:14 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:41:47 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:43:21 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:44:55 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:46:28 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:48:02 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:49:36 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:51:10 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:52:44 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:54:18 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:55:52 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:57:26 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 21:59:00 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 22:00:34 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 22:02:08 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 22:03:42 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 22:05:16 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 22:06:50 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 22:08:24 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 22:09:58 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 22:21:32 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 22:23:06 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 22:24:41 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 22:26:15 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 22:27:49 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 22:29:23 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 22:30:58 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 22:32:32 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 22:44:06 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 22:45:41 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 22:47:15 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 22:48:49 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 22:50:23 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 22:51:57 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 22:53:31 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 22:55:05 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 22:56:39 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 22:58:13 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 22:59:48 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 23:01:22 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 23:02:56 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 23:04:30 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 23:06:05 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 23:07:39 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 23:09:14 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 23:10:48 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 23:22:23 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 23:23:58 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 23:25:33 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 23:27:08 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 23:28:43 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 23:30:18 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 23:31:53 WIB</t>
+  </si>
+  <si>
+    <t>2023-06-29 23:33:28 WIB</t>
+  </si>
+  <si>
+    <t>1688044732</t>
+  </si>
+  <si>
+    <t>1688044825</t>
+  </si>
+  <si>
+    <t>1688044918</t>
+  </si>
+  <si>
+    <t>1688045011</t>
+  </si>
+  <si>
+    <t>1688045104</t>
+  </si>
+  <si>
+    <t>1688045197</t>
+  </si>
+  <si>
+    <t>1688045290</t>
+  </si>
+  <si>
+    <t>1688045383</t>
+  </si>
+  <si>
+    <t>1688046076</t>
+  </si>
+  <si>
+    <t>1688046169</t>
+  </si>
+  <si>
+    <t>1688046262</t>
+  </si>
+  <si>
+    <t>1688046355</t>
+  </si>
+  <si>
+    <t>1688046448</t>
+  </si>
+  <si>
+    <t>1688046541</t>
+  </si>
+  <si>
+    <t>1688046635</t>
+  </si>
+  <si>
+    <t>1688046728</t>
+  </si>
+  <si>
+    <t>1688046821</t>
+  </si>
+  <si>
+    <t>1688046914</t>
+  </si>
+  <si>
+    <t>1688047007</t>
+  </si>
+  <si>
+    <t>1688047100</t>
+  </si>
+  <si>
+    <t>1688047193</t>
+  </si>
+  <si>
+    <t>1688047287</t>
+  </si>
+  <si>
+    <t>1688047380</t>
+  </si>
+  <si>
+    <t>1688047473</t>
+  </si>
+  <si>
+    <t>1688047566</t>
+  </si>
+  <si>
+    <t>1688047660</t>
+  </si>
+  <si>
+    <t>1688047753</t>
+  </si>
+  <si>
+    <t>1688047846</t>
+  </si>
+  <si>
+    <t>1688047939</t>
+  </si>
+  <si>
+    <t>1688048032</t>
+  </si>
+  <si>
+    <t>1688048125</t>
+  </si>
+  <si>
+    <t>1688048218</t>
+  </si>
+  <si>
+    <t>1688048311</t>
+  </si>
+  <si>
+    <t>1688048404</t>
+  </si>
+  <si>
+    <t>1688048497</t>
+  </si>
+  <si>
+    <t>1688048590</t>
+  </si>
+  <si>
+    <t>1688048683</t>
+  </si>
+  <si>
+    <t>1688048776</t>
+  </si>
+  <si>
+    <t>1688048869</t>
+  </si>
+  <si>
+    <t>1688048962</t>
+  </si>
+  <si>
+    <t>1688049055</t>
+  </si>
+  <si>
+    <t>1688049148</t>
+  </si>
+  <si>
+    <t>1688049241</t>
+  </si>
+  <si>
+    <t>1688049335</t>
+  </si>
+  <si>
+    <t>1688049428</t>
+  </si>
+  <si>
+    <t>1688049521</t>
+  </si>
+  <si>
+    <t>1688049614</t>
+  </si>
+  <si>
+    <t>1688049707</t>
+  </si>
+  <si>
+    <t>1688049801</t>
+  </si>
+  <si>
+    <t>1688049895</t>
+  </si>
+  <si>
+    <t>1688049988</t>
+  </si>
+  <si>
+    <t>1688050082</t>
+  </si>
+  <si>
+    <t>1688050176</t>
+  </si>
+  <si>
+    <t>1688050270</t>
+  </si>
+  <si>
+    <t>1688050364</t>
+  </si>
+  <si>
+    <t>1688050458</t>
+  </si>
+  <si>
+    <t>1688050552</t>
+  </si>
+  <si>
+    <t>1688050646</t>
+  </si>
+  <si>
+    <t>1688050740</t>
+  </si>
+  <si>
+    <t>1688050834</t>
+  </si>
+  <si>
+    <t>1688050928</t>
+  </si>
+  <si>
+    <t>1688051022</t>
+  </si>
+  <si>
+    <t>1688051116</t>
+  </si>
+  <si>
+    <t>1688051210</t>
+  </si>
+  <si>
+    <t>1688051304</t>
+  </si>
+  <si>
+    <t>1688051398</t>
+  </si>
+  <si>
+    <t>1688052092</t>
+  </si>
+  <si>
+    <t>1688052186</t>
+  </si>
+  <si>
+    <t>1688052281</t>
+  </si>
+  <si>
+    <t>1688052375</t>
+  </si>
+  <si>
+    <t>1688052469</t>
+  </si>
+  <si>
+    <t>1688052563</t>
+  </si>
+  <si>
+    <t>1688052658</t>
+  </si>
+  <si>
+    <t>1688052752</t>
+  </si>
+  <si>
+    <t>1688053446</t>
+  </si>
+  <si>
+    <t>1688053541</t>
+  </si>
+  <si>
+    <t>1688053635</t>
+  </si>
+  <si>
+    <t>1688053729</t>
+  </si>
+  <si>
+    <t>1688053823</t>
+  </si>
+  <si>
+    <t>1688053917</t>
+  </si>
+  <si>
+    <t>1688054011</t>
+  </si>
+  <si>
+    <t>1688054105</t>
+  </si>
+  <si>
+    <t>1688054199</t>
+  </si>
+  <si>
+    <t>1688054293</t>
+  </si>
+  <si>
+    <t>1688054388</t>
+  </si>
+  <si>
+    <t>1688054482</t>
+  </si>
+  <si>
+    <t>1688054576</t>
+  </si>
+  <si>
+    <t>1688054670</t>
+  </si>
+  <si>
+    <t>1688054765</t>
+  </si>
+  <si>
+    <t>1688054859</t>
+  </si>
+  <si>
+    <t>1688054954</t>
+  </si>
+  <si>
+    <t>1688055048</t>
+  </si>
+  <si>
+    <t>1688055743</t>
+  </si>
+  <si>
+    <t>1688055838</t>
+  </si>
+  <si>
+    <t>1688055933</t>
+  </si>
+  <si>
+    <t>1688056028</t>
+  </si>
+  <si>
+    <t>1688056123</t>
+  </si>
+  <si>
+    <t>1688056218</t>
+  </si>
+  <si>
+    <t>1688056313</t>
+  </si>
+  <si>
+    <t>1688056408</t>
+  </si>
+  <si>
+    <t>GET /node/</t>
   </si>
   <si>
     <t>GET /node/1</t>
@@ -685,7 +685,7 @@
     <t>PUT /node/1</t>
   </si>
   <si>
-    <t>POST /channel</t>
+    <t>POST /channel/</t>
   </si>
   <si>
     <t>200</t>
@@ -1067,7 +1067,7 @@
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="9" width="13.7109375" customWidth="1"/>
@@ -1160,40 +1160,40 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>13145</v>
+        <v>12758</v>
       </c>
       <c r="I2">
         <v>100</v>
       </c>
       <c r="J2">
-        <v>59.25</v>
+        <v>59.85</v>
       </c>
       <c r="K2">
-        <v>711.03</v>
+        <v>690.1</v>
       </c>
       <c r="L2">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="M2">
-        <v>221.86</v>
+        <v>213.17</v>
       </c>
       <c r="N2">
-        <v>12</v>
+        <v>11.53</v>
       </c>
       <c r="O2">
-        <v>196.19</v>
+        <v>198.17</v>
       </c>
       <c r="P2">
-        <v>13145</v>
+        <v>12758</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>3.11</v>
+        <v>3.42</v>
       </c>
       <c r="S2">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1219,40 +1219,40 @@
         <v>2</v>
       </c>
       <c r="H3">
-        <v>13534</v>
+        <v>12734</v>
       </c>
       <c r="I3">
         <v>100</v>
       </c>
       <c r="J3">
-        <v>59.26</v>
+        <v>59.4</v>
       </c>
       <c r="K3">
-        <v>732.0700000000001</v>
+        <v>688.8</v>
       </c>
       <c r="L3">
-        <v>0.87</v>
+        <v>0.92</v>
       </c>
       <c r="M3">
-        <v>228.38</v>
+        <v>214.38</v>
       </c>
       <c r="N3">
-        <v>12.35</v>
+        <v>11.6</v>
       </c>
       <c r="O3">
-        <v>197.64</v>
+        <v>197.69</v>
       </c>
       <c r="P3">
-        <v>13534</v>
+        <v>12734</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>2.24</v>
+        <v>3.81</v>
       </c>
       <c r="S3">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1278,37 +1278,37 @@
         <v>3</v>
       </c>
       <c r="H4">
-        <v>13221</v>
+        <v>13148</v>
       </c>
       <c r="I4">
         <v>100</v>
       </c>
       <c r="J4">
-        <v>59.38</v>
+        <v>59.97</v>
       </c>
       <c r="K4">
-        <v>715.14</v>
+        <v>711.1900000000001</v>
       </c>
       <c r="L4">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="M4">
-        <v>222.65</v>
+        <v>219.24</v>
       </c>
       <c r="N4">
-        <v>12.04</v>
+        <v>11.86</v>
       </c>
       <c r="O4">
-        <v>198.45</v>
+        <v>198.17</v>
       </c>
       <c r="P4">
-        <v>13221</v>
+        <v>13148</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>2.5</v>
+        <v>3.03</v>
       </c>
       <c r="S4">
         <v>0.02</v>
@@ -1337,40 +1337,40 @@
         <v>4</v>
       </c>
       <c r="H5">
-        <v>13266</v>
+        <v>12577</v>
       </c>
       <c r="I5">
         <v>100</v>
       </c>
       <c r="J5">
-        <v>59.25</v>
+        <v>59.72</v>
       </c>
       <c r="K5">
-        <v>717.58</v>
+        <v>680.3099999999999</v>
       </c>
       <c r="L5">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="M5">
-        <v>223.9</v>
+        <v>210.6</v>
       </c>
       <c r="N5">
-        <v>12.11</v>
+        <v>11.39</v>
       </c>
       <c r="O5">
-        <v>198.17</v>
+        <v>197.65</v>
       </c>
       <c r="P5">
-        <v>13266</v>
+        <v>12577</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="S5">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1396,37 +1396,37 @@
         <v>5</v>
       </c>
       <c r="H6">
-        <v>13253</v>
+        <v>12303</v>
       </c>
       <c r="I6">
         <v>100</v>
       </c>
       <c r="J6">
-        <v>59.37</v>
+        <v>59.14</v>
       </c>
       <c r="K6">
-        <v>716.87</v>
+        <v>665.49</v>
       </c>
       <c r="L6">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="M6">
-        <v>223.23</v>
+        <v>208.03</v>
       </c>
       <c r="N6">
-        <v>12.07</v>
+        <v>11.25</v>
       </c>
       <c r="O6">
-        <v>198.23</v>
+        <v>197.74</v>
       </c>
       <c r="P6">
-        <v>13253</v>
+        <v>12303</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>2.4</v>
+        <v>3.81</v>
       </c>
       <c r="S6">
         <v>0.02</v>
@@ -1455,40 +1455,40 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>13085</v>
+        <v>12967</v>
       </c>
       <c r="I7">
         <v>100</v>
       </c>
       <c r="J7">
-        <v>59.22</v>
+        <v>59.73</v>
       </c>
       <c r="K7">
-        <v>707.79</v>
+        <v>701.4</v>
       </c>
       <c r="L7">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="M7">
-        <v>220.96</v>
+        <v>217.09</v>
       </c>
       <c r="N7">
-        <v>11.95</v>
+        <v>11.74</v>
       </c>
       <c r="O7">
-        <v>393.03</v>
+        <v>392.57</v>
       </c>
       <c r="P7">
-        <v>13085</v>
+        <v>12967</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
-        <v>4.57</v>
+        <v>7</v>
       </c>
       <c r="S7">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1514,37 +1514,37 @@
         <v>2</v>
       </c>
       <c r="H8">
-        <v>13345</v>
+        <v>12986</v>
       </c>
       <c r="I8">
         <v>100</v>
       </c>
       <c r="J8">
-        <v>59.38</v>
+        <v>59.55</v>
       </c>
       <c r="K8">
-        <v>721.85</v>
+        <v>702.4299999999999</v>
       </c>
       <c r="L8">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="M8">
-        <v>224.74</v>
+        <v>218.07</v>
       </c>
       <c r="N8">
-        <v>12.16</v>
+        <v>11.8</v>
       </c>
       <c r="O8">
-        <v>394.2</v>
+        <v>392.41</v>
       </c>
       <c r="P8">
-        <v>13345</v>
+        <v>12986</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>5.72</v>
+        <v>7.23</v>
       </c>
       <c r="S8">
         <v>0.03</v>
@@ -1573,40 +1573,40 @@
         <v>3</v>
       </c>
       <c r="H9">
-        <v>13544</v>
+        <v>12606</v>
       </c>
       <c r="I9">
         <v>100</v>
       </c>
       <c r="J9">
-        <v>59.33</v>
+        <v>59.49</v>
       </c>
       <c r="K9">
-        <v>732.61</v>
+        <v>681.88</v>
       </c>
       <c r="L9">
-        <v>1.72</v>
+        <v>1.84</v>
       </c>
       <c r="M9">
-        <v>228.28</v>
+        <v>211.9</v>
       </c>
       <c r="N9">
-        <v>12.35</v>
+        <v>11.46</v>
       </c>
       <c r="O9">
-        <v>392.44</v>
+        <v>389.75</v>
       </c>
       <c r="P9">
-        <v>13544</v>
+        <v>12606</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>4.52</v>
+        <v>6.41</v>
       </c>
       <c r="S9">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1632,37 +1632,37 @@
         <v>4</v>
       </c>
       <c r="H10">
-        <v>13498</v>
+        <v>12240</v>
       </c>
       <c r="I10">
         <v>100</v>
       </c>
       <c r="J10">
-        <v>59.19</v>
+        <v>59.35</v>
       </c>
       <c r="K10">
-        <v>730.13</v>
+        <v>662.08</v>
       </c>
       <c r="L10">
-        <v>1.72</v>
+        <v>1.9</v>
       </c>
       <c r="M10">
-        <v>228.05</v>
+        <v>206.23</v>
       </c>
       <c r="N10">
-        <v>12.34</v>
+        <v>11.16</v>
       </c>
       <c r="O10">
-        <v>392.76</v>
+        <v>392.64</v>
       </c>
       <c r="P10">
-        <v>13498</v>
+        <v>12240</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>4.94</v>
+        <v>6.36</v>
       </c>
       <c r="S10">
         <v>0.03</v>
@@ -1691,37 +1691,37 @@
         <v>5</v>
       </c>
       <c r="H11">
-        <v>13321</v>
+        <v>12985</v>
       </c>
       <c r="I11">
         <v>100</v>
       </c>
       <c r="J11">
-        <v>59.9</v>
+        <v>59.55</v>
       </c>
       <c r="K11">
-        <v>720.55</v>
+        <v>702.38</v>
       </c>
       <c r="L11">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="M11">
-        <v>222.39</v>
+        <v>218.05</v>
       </c>
       <c r="N11">
-        <v>12.03</v>
+        <v>11.79</v>
       </c>
       <c r="O11">
-        <v>389.26</v>
+        <v>391.9</v>
       </c>
       <c r="P11">
-        <v>13321</v>
+        <v>12985</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
-        <v>5.33</v>
+        <v>5.55</v>
       </c>
       <c r="S11">
         <v>0.03</v>
@@ -1750,40 +1750,40 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>13032</v>
+        <v>12645</v>
       </c>
       <c r="I12">
         <v>100</v>
       </c>
       <c r="J12">
-        <v>59.19</v>
+        <v>59.84</v>
       </c>
       <c r="K12">
-        <v>704.92</v>
+        <v>683.99</v>
       </c>
       <c r="L12">
-        <v>2.66</v>
+        <v>2.75</v>
       </c>
       <c r="M12">
-        <v>220.17</v>
+        <v>211.31</v>
       </c>
       <c r="N12">
-        <v>11.91</v>
+        <v>11.43</v>
       </c>
       <c r="O12">
-        <v>586.08</v>
+        <v>582.03</v>
       </c>
       <c r="P12">
-        <v>13032</v>
+        <v>12645</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12">
-        <v>9.119999999999999</v>
+        <v>9.77</v>
       </c>
       <c r="S12">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1809,40 +1809,40 @@
         <v>2</v>
       </c>
       <c r="H13">
-        <v>13335</v>
+        <v>12797</v>
       </c>
       <c r="I13">
         <v>100</v>
       </c>
       <c r="J13">
-        <v>59.03</v>
+        <v>59.42</v>
       </c>
       <c r="K13">
-        <v>721.3099999999999</v>
+        <v>692.21</v>
       </c>
       <c r="L13">
-        <v>2.57</v>
+        <v>2.69</v>
       </c>
       <c r="M13">
-        <v>225.9</v>
+        <v>215.37</v>
       </c>
       <c r="N13">
-        <v>12.22</v>
+        <v>11.65</v>
       </c>
       <c r="O13">
-        <v>581.22</v>
+        <v>580.1900000000001</v>
       </c>
       <c r="P13">
-        <v>13335</v>
+        <v>12797</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13">
-        <v>7.67</v>
+        <v>10.48</v>
       </c>
       <c r="S13">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1868,37 +1868,37 @@
         <v>3</v>
       </c>
       <c r="H14">
-        <v>13287</v>
+        <v>12383</v>
       </c>
       <c r="I14">
         <v>100</v>
       </c>
       <c r="J14">
-        <v>59.02</v>
+        <v>59.32</v>
       </c>
       <c r="K14">
-        <v>718.71</v>
+        <v>669.8099999999999</v>
       </c>
       <c r="L14">
-        <v>2.6</v>
+        <v>2.81</v>
       </c>
       <c r="M14">
-        <v>225.13</v>
+        <v>208.75</v>
       </c>
       <c r="N14">
-        <v>12.18</v>
+        <v>11.29</v>
       </c>
       <c r="O14">
-        <v>585.4</v>
+        <v>585.97</v>
       </c>
       <c r="P14">
-        <v>13287</v>
+        <v>12383</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
       <c r="R14">
-        <v>8.380000000000001</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="S14">
         <v>0.03</v>
@@ -1927,40 +1927,40 @@
         <v>4</v>
       </c>
       <c r="H15">
-        <v>13313</v>
+        <v>12396</v>
       </c>
       <c r="I15">
         <v>100</v>
       </c>
       <c r="J15">
-        <v>59.89</v>
+        <v>59.27</v>
       </c>
       <c r="K15">
-        <v>720.12</v>
+        <v>670.52</v>
       </c>
       <c r="L15">
-        <v>2.63</v>
+        <v>2.77</v>
       </c>
       <c r="M15">
-        <v>222.29</v>
+        <v>209.14</v>
       </c>
       <c r="N15">
-        <v>12.02</v>
+        <v>11.31</v>
       </c>
       <c r="O15">
-        <v>584.41</v>
+        <v>580.16</v>
       </c>
       <c r="P15">
-        <v>13313</v>
+        <v>12396</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15">
-        <v>7.6</v>
+        <v>10.35</v>
       </c>
       <c r="S15">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1986,40 +1986,40 @@
         <v>5</v>
       </c>
       <c r="H16">
-        <v>13670</v>
+        <v>12298</v>
       </c>
       <c r="I16">
         <v>100</v>
       </c>
       <c r="J16">
-        <v>59.79</v>
+        <v>59.68</v>
       </c>
       <c r="K16">
-        <v>739.4299999999999</v>
+        <v>665.22</v>
       </c>
       <c r="L16">
-        <v>2.58</v>
+        <v>2.81</v>
       </c>
       <c r="M16">
-        <v>228.63</v>
+        <v>206.07</v>
       </c>
       <c r="N16">
-        <v>12.37</v>
+        <v>11.15</v>
       </c>
       <c r="O16">
-        <v>590.0599999999999</v>
+        <v>578.22</v>
       </c>
       <c r="P16">
-        <v>13670</v>
+        <v>12298</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
       <c r="R16">
-        <v>7.17</v>
+        <v>10.93</v>
       </c>
       <c r="S16">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -2045,40 +2045,40 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>13286</v>
+        <v>12034</v>
       </c>
       <c r="I17">
-        <v>100</v>
+        <v>99.28</v>
       </c>
       <c r="J17">
-        <v>60.02</v>
+        <v>59.18</v>
       </c>
       <c r="K17">
-        <v>718.66</v>
+        <v>650.99</v>
       </c>
       <c r="L17">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="M17">
-        <v>221.36</v>
+        <v>203.35</v>
       </c>
       <c r="N17">
-        <v>11.97</v>
+        <v>11</v>
       </c>
       <c r="O17">
-        <v>764.46</v>
+        <v>762.91</v>
       </c>
       <c r="P17">
-        <v>13286</v>
+        <v>12035</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="R17">
-        <v>9.550000000000001</v>
+        <v>11.92</v>
       </c>
       <c r="S17">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -2104,37 +2104,37 @@
         <v>2</v>
       </c>
       <c r="H18">
-        <v>12961</v>
+        <v>11998</v>
       </c>
       <c r="I18">
-        <v>98.61</v>
+        <v>99.03</v>
       </c>
       <c r="J18">
-        <v>59.88</v>
+        <v>59.04</v>
       </c>
       <c r="K18">
-        <v>701.08</v>
+        <v>648.99</v>
       </c>
       <c r="L18">
-        <v>3.53</v>
+        <v>3.61</v>
       </c>
       <c r="M18">
-        <v>216.45</v>
+        <v>203.22</v>
       </c>
       <c r="N18">
-        <v>11.71</v>
+        <v>10.99</v>
       </c>
       <c r="O18">
-        <v>765.02</v>
+        <v>734.59</v>
       </c>
       <c r="P18">
-        <v>12961</v>
+        <v>11998</v>
       </c>
       <c r="Q18">
-        <v>183</v>
+        <v>117</v>
       </c>
       <c r="R18">
-        <v>9.289999999999999</v>
+        <v>13.03</v>
       </c>
       <c r="S18">
         <v>0.06</v>
@@ -2163,40 +2163,40 @@
         <v>3</v>
       </c>
       <c r="H19">
-        <v>12980</v>
+        <v>12438</v>
       </c>
       <c r="I19">
         <v>100</v>
       </c>
       <c r="J19">
-        <v>59.79</v>
+        <v>59.21</v>
       </c>
       <c r="K19">
-        <v>702.11</v>
+        <v>672.79</v>
       </c>
       <c r="L19">
-        <v>3.54</v>
+        <v>3.66</v>
       </c>
       <c r="M19">
-        <v>217.09</v>
+        <v>210.07</v>
       </c>
       <c r="N19">
-        <v>11.74</v>
+        <v>11.36</v>
       </c>
       <c r="O19">
-        <v>769.34</v>
+        <v>768.9299999999999</v>
       </c>
       <c r="P19">
-        <v>12980</v>
+        <v>12438</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
       <c r="R19">
-        <v>7.6</v>
+        <v>11.7</v>
       </c>
       <c r="S19">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -2222,40 +2222,40 @@
         <v>4</v>
       </c>
       <c r="H20">
-        <v>13384</v>
+        <v>12582</v>
       </c>
       <c r="I20">
         <v>100</v>
       </c>
       <c r="J20">
-        <v>60.01</v>
+        <v>59.21</v>
       </c>
       <c r="K20">
-        <v>723.96</v>
+        <v>680.58</v>
       </c>
       <c r="L20">
-        <v>3.5</v>
+        <v>3.61</v>
       </c>
       <c r="M20">
-        <v>223.03</v>
+        <v>212.5</v>
       </c>
       <c r="N20">
-        <v>12.06</v>
+        <v>11.49</v>
       </c>
       <c r="O20">
-        <v>781.67</v>
+        <v>766.63</v>
       </c>
       <c r="P20">
-        <v>13384</v>
+        <v>12582</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
       <c r="R20">
-        <v>7.74</v>
+        <v>10.45</v>
       </c>
       <c r="S20">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -2281,40 +2281,40 @@
         <v>5</v>
       </c>
       <c r="H21">
-        <v>12829</v>
+        <v>12292</v>
       </c>
       <c r="I21">
-        <v>100</v>
+        <v>99.31</v>
       </c>
       <c r="J21">
-        <v>59.73</v>
+        <v>59.14</v>
       </c>
       <c r="K21">
-        <v>693.9400000000001</v>
+        <v>664.89</v>
       </c>
       <c r="L21">
-        <v>3.48</v>
+        <v>3.7</v>
       </c>
       <c r="M21">
-        <v>214.78</v>
+        <v>207.85</v>
       </c>
       <c r="N21">
-        <v>11.62</v>
+        <v>11.24</v>
       </c>
       <c r="O21">
-        <v>746.59</v>
+        <v>769.36</v>
       </c>
       <c r="P21">
-        <v>12829</v>
+        <v>12292</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="R21">
-        <v>9.279999999999999</v>
+        <v>16.49</v>
       </c>
       <c r="S21">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -2340,37 +2340,37 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>12518</v>
+        <v>10986</v>
       </c>
       <c r="I22">
-        <v>100</v>
+        <v>97.22</v>
       </c>
       <c r="J22">
-        <v>59.1</v>
+        <v>59.16</v>
       </c>
       <c r="K22">
-        <v>677.12</v>
+        <v>594.25</v>
       </c>
       <c r="L22">
-        <v>4.36</v>
+        <v>4.91</v>
       </c>
       <c r="M22">
-        <v>211.81</v>
+        <v>185.7</v>
       </c>
       <c r="N22">
-        <v>11.46</v>
+        <v>10.04</v>
       </c>
       <c r="O22">
-        <v>923.29</v>
+        <v>912.1</v>
       </c>
       <c r="P22">
-        <v>12518</v>
+        <v>10986</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>314</v>
       </c>
       <c r="R22">
-        <v>9.85</v>
+        <v>18.21</v>
       </c>
       <c r="S22">
         <v>0.05</v>
@@ -2399,40 +2399,40 @@
         <v>2</v>
       </c>
       <c r="H23">
-        <v>13194</v>
+        <v>12697</v>
       </c>
       <c r="I23">
-        <v>100</v>
+        <v>98.81</v>
       </c>
       <c r="J23">
-        <v>59.42</v>
+        <v>59.78</v>
       </c>
       <c r="K23">
-        <v>713.6799999999999</v>
+        <v>686.8</v>
       </c>
       <c r="L23">
-        <v>4.38</v>
+        <v>4.47</v>
       </c>
       <c r="M23">
-        <v>222.05</v>
+        <v>212.4</v>
       </c>
       <c r="N23">
-        <v>12.01</v>
+        <v>11.49</v>
       </c>
       <c r="O23">
-        <v>972.77</v>
+        <v>949.48</v>
       </c>
       <c r="P23">
-        <v>13194</v>
+        <v>12697</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="R23">
-        <v>13.53</v>
+        <v>16.85</v>
       </c>
       <c r="S23">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -2458,40 +2458,40 @@
         <v>3</v>
       </c>
       <c r="H24">
-        <v>12679</v>
+        <v>12224</v>
       </c>
       <c r="I24">
-        <v>98.06999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="J24">
-        <v>59.65</v>
+        <v>59.72</v>
       </c>
       <c r="K24">
-        <v>685.83</v>
+        <v>661.21</v>
       </c>
       <c r="L24">
-        <v>4.42</v>
+        <v>4.51</v>
       </c>
       <c r="M24">
-        <v>212.56</v>
+        <v>204.69</v>
       </c>
       <c r="N24">
-        <v>11.5</v>
+        <v>11.07</v>
       </c>
       <c r="O24">
-        <v>939.73</v>
+        <v>922.29</v>
       </c>
       <c r="P24">
-        <v>12679</v>
+        <v>12224</v>
       </c>
       <c r="Q24">
-        <v>249</v>
+        <v>212</v>
       </c>
       <c r="R24">
-        <v>9.359999999999999</v>
+        <v>15.22</v>
       </c>
       <c r="S24">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -2517,40 +2517,40 @@
         <v>4</v>
       </c>
       <c r="H25">
-        <v>12908</v>
+        <v>11587</v>
       </c>
       <c r="I25">
-        <v>97.90000000000001</v>
+        <v>95.81</v>
       </c>
       <c r="J25">
-        <v>59.95</v>
+        <v>59.46</v>
       </c>
       <c r="K25">
-        <v>698.21</v>
+        <v>626.76</v>
       </c>
       <c r="L25">
-        <v>4.38</v>
+        <v>4.37</v>
       </c>
       <c r="M25">
-        <v>215.31</v>
+        <v>194.87</v>
       </c>
       <c r="N25">
-        <v>11.65</v>
+        <v>10.54</v>
       </c>
       <c r="O25">
-        <v>942.1900000000001</v>
+        <v>851.55</v>
       </c>
       <c r="P25">
-        <v>12908</v>
+        <v>11587</v>
       </c>
       <c r="Q25">
-        <v>277</v>
+        <v>507</v>
       </c>
       <c r="R25">
-        <v>9.630000000000001</v>
+        <v>11.97</v>
       </c>
       <c r="S25">
-        <v>0.14</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -2576,40 +2576,40 @@
         <v>5</v>
       </c>
       <c r="H26">
-        <v>13053</v>
+        <v>11978</v>
       </c>
       <c r="I26">
         <v>100</v>
       </c>
       <c r="J26">
-        <v>59.51</v>
+        <v>59.14</v>
       </c>
       <c r="K26">
-        <v>706.0599999999999</v>
+        <v>647.91</v>
       </c>
       <c r="L26">
-        <v>4.38</v>
+        <v>4.7</v>
       </c>
       <c r="M26">
-        <v>219.34</v>
+        <v>202.54</v>
       </c>
       <c r="N26">
-        <v>11.86</v>
+        <v>10.96</v>
       </c>
       <c r="O26">
-        <v>960.8</v>
+        <v>952.35</v>
       </c>
       <c r="P26">
-        <v>13053</v>
+        <v>11978</v>
       </c>
       <c r="Q26">
         <v>0</v>
       </c>
       <c r="R26">
-        <v>9.31</v>
+        <v>13.42</v>
       </c>
       <c r="S26">
-        <v>0.12</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:19">
@@ -2635,37 +2635,37 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>72153</v>
+        <v>63041</v>
       </c>
       <c r="I27">
         <v>100</v>
       </c>
       <c r="J27">
-        <v>59.96</v>
+        <v>60.05</v>
       </c>
       <c r="K27">
-        <v>38.4</v>
+        <v>33.55</v>
       </c>
       <c r="L27">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="M27">
-        <v>1203.35</v>
+        <v>1049.81</v>
       </c>
       <c r="N27">
-        <v>0.64</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O27">
-        <v>199.28</v>
+        <v>199.12</v>
       </c>
       <c r="P27">
-        <v>72153</v>
+        <v>63041</v>
       </c>
       <c r="Q27">
         <v>0</v>
       </c>
       <c r="R27">
-        <v>0.95</v>
+        <v>1.01</v>
       </c>
       <c r="S27">
         <v>0</v>
@@ -2694,37 +2694,37 @@
         <v>2</v>
       </c>
       <c r="H28">
-        <v>71348</v>
+        <v>71503</v>
       </c>
       <c r="I28">
         <v>100</v>
       </c>
       <c r="J28">
-        <v>59.49</v>
+        <v>59.32</v>
       </c>
       <c r="K28">
-        <v>37.97</v>
+        <v>16.64</v>
       </c>
       <c r="L28">
         <v>0.17</v>
       </c>
       <c r="M28">
-        <v>1199.33</v>
+        <v>1205.38</v>
       </c>
       <c r="N28">
-        <v>0.64</v>
+        <v>0.28</v>
       </c>
       <c r="O28">
-        <v>199.29</v>
+        <v>199.3</v>
       </c>
       <c r="P28">
-        <v>71348</v>
+        <v>71460</v>
       </c>
       <c r="Q28">
         <v>0</v>
       </c>
       <c r="R28">
-        <v>1.02</v>
+        <v>23.01</v>
       </c>
       <c r="S28">
         <v>0</v>
@@ -2753,37 +2753,37 @@
         <v>3</v>
       </c>
       <c r="H29">
-        <v>71718</v>
+        <v>71848</v>
       </c>
       <c r="I29">
         <v>100</v>
       </c>
       <c r="J29">
-        <v>59.44</v>
+        <v>59.37</v>
       </c>
       <c r="K29">
-        <v>38.16</v>
+        <v>18.29</v>
       </c>
       <c r="L29">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="M29">
-        <v>1206.56</v>
+        <v>1210.17</v>
       </c>
       <c r="N29">
-        <v>0.64</v>
+        <v>0.31</v>
       </c>
       <c r="O29">
-        <v>199.34</v>
+        <v>199.33</v>
       </c>
       <c r="P29">
-        <v>71718</v>
+        <v>71848</v>
       </c>
       <c r="Q29">
         <v>0</v>
       </c>
       <c r="R29">
-        <v>0.86</v>
+        <v>1.01</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -2812,40 +2812,40 @@
         <v>4</v>
       </c>
       <c r="H30">
-        <v>59272</v>
+        <v>111971</v>
       </c>
       <c r="I30">
         <v>100</v>
       </c>
       <c r="J30">
-        <v>59.3</v>
+        <v>59.91</v>
       </c>
       <c r="K30">
-        <v>13.62</v>
+        <v>28.51</v>
       </c>
       <c r="L30">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="M30">
-        <v>999.53</v>
+        <v>1868.99</v>
       </c>
       <c r="N30">
-        <v>0.23</v>
+        <v>0.48</v>
       </c>
       <c r="O30">
-        <v>199.44</v>
+        <v>199.65</v>
       </c>
       <c r="P30">
-        <v>59234</v>
+        <v>111971</v>
       </c>
       <c r="Q30">
         <v>0</v>
       </c>
       <c r="R30">
-        <v>16.01</v>
+        <v>0.41</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -2871,37 +2871,37 @@
         <v>5</v>
       </c>
       <c r="H31">
-        <v>67640</v>
+        <v>121348</v>
       </c>
       <c r="I31">
         <v>100</v>
       </c>
       <c r="J31">
-        <v>59.68</v>
+        <v>59.93</v>
       </c>
       <c r="K31">
-        <v>17.22</v>
+        <v>30.9</v>
       </c>
       <c r="L31">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="M31">
-        <v>1133.38</v>
+        <v>2024.83</v>
       </c>
       <c r="N31">
-        <v>0.29</v>
+        <v>0.52</v>
       </c>
       <c r="O31">
-        <v>199.34</v>
+        <v>199.68</v>
       </c>
       <c r="P31">
-        <v>67640</v>
+        <v>121348</v>
       </c>
       <c r="Q31">
         <v>0</v>
       </c>
       <c r="R31">
-        <v>1.36</v>
+        <v>0.53</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -2930,37 +2930,37 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>67242</v>
+        <v>70101</v>
       </c>
       <c r="I32">
         <v>100</v>
       </c>
       <c r="J32">
-        <v>59.37</v>
+        <v>59.96</v>
       </c>
       <c r="K32">
-        <v>17.12</v>
+        <v>17.85</v>
       </c>
       <c r="L32">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="M32">
-        <v>1132.59</v>
+        <v>1169.13</v>
       </c>
       <c r="N32">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="O32">
-        <v>397.54</v>
+        <v>397.77</v>
       </c>
       <c r="P32">
-        <v>67242</v>
+        <v>70101</v>
       </c>
       <c r="Q32">
         <v>0</v>
       </c>
       <c r="R32">
-        <v>1.6</v>
+        <v>3.14</v>
       </c>
       <c r="S32">
         <v>0</v>
@@ -2989,37 +2989,37 @@
         <v>2</v>
       </c>
       <c r="H33">
-        <v>71056</v>
+        <v>71742</v>
       </c>
       <c r="I33">
         <v>100</v>
       </c>
       <c r="J33">
-        <v>59.34</v>
+        <v>59.41</v>
       </c>
       <c r="K33">
-        <v>18.09</v>
+        <v>18.27</v>
       </c>
       <c r="L33">
         <v>0.33</v>
       </c>
       <c r="M33">
-        <v>1197.44</v>
+        <v>1207.57</v>
       </c>
       <c r="N33">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="O33">
-        <v>397.58</v>
+        <v>397.01</v>
       </c>
       <c r="P33">
-        <v>71056</v>
+        <v>71742</v>
       </c>
       <c r="Q33">
         <v>0</v>
       </c>
       <c r="R33">
-        <v>1.91</v>
+        <v>1.4</v>
       </c>
       <c r="S33">
         <v>0</v>
@@ -3048,40 +3048,40 @@
         <v>3</v>
       </c>
       <c r="H34">
-        <v>67253</v>
+        <v>123387</v>
       </c>
       <c r="I34">
         <v>100</v>
       </c>
       <c r="J34">
-        <v>59.38</v>
+        <v>59.18</v>
       </c>
       <c r="K34">
-        <v>17.12</v>
+        <v>31.42</v>
       </c>
       <c r="L34">
-        <v>0.35</v>
+        <v>0.19</v>
       </c>
       <c r="M34">
-        <v>1132.59</v>
+        <v>2084.94</v>
       </c>
       <c r="N34">
-        <v>0.29</v>
+        <v>0.53</v>
       </c>
       <c r="O34">
-        <v>397.19</v>
+        <v>399.03</v>
       </c>
       <c r="P34">
-        <v>67253</v>
+        <v>123387</v>
       </c>
       <c r="Q34">
         <v>0</v>
       </c>
       <c r="R34">
-        <v>2</v>
+        <v>0.65</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="35" spans="1:19">
@@ -3107,40 +3107,40 @@
         <v>4</v>
       </c>
       <c r="H35">
-        <v>65859</v>
+        <v>109117</v>
       </c>
       <c r="I35">
         <v>100</v>
       </c>
       <c r="J35">
-        <v>59.48</v>
+        <v>59.92</v>
       </c>
       <c r="K35">
-        <v>16.77</v>
+        <v>27.78</v>
       </c>
       <c r="L35">
-        <v>0.36</v>
+        <v>0.22</v>
       </c>
       <c r="M35">
-        <v>1107.25</v>
+        <v>1821.04</v>
       </c>
       <c r="N35">
-        <v>0.28</v>
+        <v>0.46</v>
       </c>
       <c r="O35">
-        <v>396.59</v>
+        <v>398.94</v>
       </c>
       <c r="P35">
-        <v>65859</v>
+        <v>109117</v>
       </c>
       <c r="Q35">
         <v>0</v>
       </c>
       <c r="R35">
-        <v>2.01</v>
+        <v>0.93</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="36" spans="1:19">
@@ -3166,37 +3166,37 @@
         <v>5</v>
       </c>
       <c r="H36">
-        <v>64212</v>
+        <v>73490</v>
       </c>
       <c r="I36">
         <v>100</v>
       </c>
       <c r="J36">
-        <v>59.26</v>
+        <v>59.92</v>
       </c>
       <c r="K36">
-        <v>16.35</v>
+        <v>18.71</v>
       </c>
       <c r="L36">
-        <v>0.37</v>
+        <v>0.32</v>
       </c>
       <c r="M36">
-        <v>1083.56</v>
+        <v>1226.47</v>
       </c>
       <c r="N36">
-        <v>0.28</v>
+        <v>0.31</v>
       </c>
       <c r="O36">
-        <v>397.05</v>
+        <v>397.19</v>
       </c>
       <c r="P36">
-        <v>64212</v>
+        <v>73490</v>
       </c>
       <c r="Q36">
         <v>0</v>
       </c>
       <c r="R36">
-        <v>1.74</v>
+        <v>1.58</v>
       </c>
       <c r="S36">
         <v>0</v>
@@ -3225,37 +3225,37 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>71093</v>
+        <v>121621</v>
       </c>
       <c r="I37">
         <v>100</v>
       </c>
       <c r="J37">
-        <v>60.1</v>
+        <v>59.18</v>
       </c>
       <c r="K37">
-        <v>18.1</v>
+        <v>30.97</v>
       </c>
       <c r="L37">
-        <v>0.5</v>
+        <v>0.29</v>
       </c>
       <c r="M37">
-        <v>1182.91</v>
+        <v>2055.1</v>
       </c>
       <c r="N37">
-        <v>0.3</v>
+        <v>0.52</v>
       </c>
       <c r="O37">
-        <v>594.3</v>
+        <v>596.8099999999999</v>
       </c>
       <c r="P37">
-        <v>71093</v>
+        <v>121621</v>
       </c>
       <c r="Q37">
         <v>0</v>
       </c>
       <c r="R37">
-        <v>2.05</v>
+        <v>6.08</v>
       </c>
       <c r="S37">
         <v>0</v>
@@ -3284,37 +3284,37 @@
         <v>2</v>
       </c>
       <c r="H38">
-        <v>72563</v>
+        <v>75097</v>
       </c>
       <c r="I38">
         <v>100</v>
       </c>
       <c r="J38">
-        <v>59.32</v>
+        <v>60.04</v>
       </c>
       <c r="K38">
-        <v>18.48</v>
+        <v>19.12</v>
       </c>
       <c r="L38">
-        <v>0.49</v>
+        <v>0.47</v>
       </c>
       <c r="M38">
-        <v>1223.25</v>
+        <v>1250.78</v>
       </c>
       <c r="N38">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="O38">
-        <v>594.79</v>
+        <v>593.41</v>
       </c>
       <c r="P38">
-        <v>72564</v>
+        <v>75097</v>
       </c>
       <c r="Q38">
         <v>0</v>
       </c>
       <c r="R38">
-        <v>4.46</v>
+        <v>1.85</v>
       </c>
       <c r="S38">
         <v>0</v>
@@ -3343,40 +3343,40 @@
         <v>3</v>
       </c>
       <c r="H39">
-        <v>74456</v>
+        <v>99818</v>
       </c>
       <c r="I39">
         <v>100</v>
       </c>
       <c r="J39">
-        <v>59.29</v>
+        <v>59.24</v>
       </c>
       <c r="K39">
-        <v>18.96</v>
+        <v>25.42</v>
       </c>
       <c r="L39">
-        <v>0.47</v>
+        <v>0.35</v>
       </c>
       <c r="M39">
-        <v>1255.79</v>
+        <v>1684.98</v>
       </c>
       <c r="N39">
-        <v>0.32</v>
+        <v>0.43</v>
       </c>
       <c r="O39">
-        <v>594.0700000000001</v>
+        <v>596.88</v>
       </c>
       <c r="P39">
-        <v>74456</v>
+        <v>99818</v>
       </c>
       <c r="Q39">
         <v>0</v>
       </c>
       <c r="R39">
-        <v>3.08</v>
+        <v>5.16</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="40" spans="1:19">
@@ -3402,37 +3402,37 @@
         <v>4</v>
       </c>
       <c r="H40">
-        <v>64154</v>
+        <v>72295</v>
       </c>
       <c r="I40">
         <v>100</v>
       </c>
       <c r="J40">
-        <v>59.28</v>
+        <v>59.93</v>
       </c>
       <c r="K40">
-        <v>16.34</v>
+        <v>18.41</v>
       </c>
       <c r="L40">
-        <v>0.55</v>
+        <v>0.49</v>
       </c>
       <c r="M40">
-        <v>1082.22</v>
+        <v>1206.32</v>
       </c>
       <c r="N40">
-        <v>0.28</v>
+        <v>0.31</v>
       </c>
       <c r="O40">
-        <v>593.5</v>
+        <v>594.77</v>
       </c>
       <c r="P40">
-        <v>64154</v>
+        <v>72295</v>
       </c>
       <c r="Q40">
         <v>0</v>
       </c>
       <c r="R40">
-        <v>2.5</v>
+        <v>3.19</v>
       </c>
       <c r="S40">
         <v>0</v>
@@ -3461,40 +3461,40 @@
         <v>5</v>
       </c>
       <c r="H41">
-        <v>63959</v>
+        <v>104344</v>
       </c>
       <c r="I41">
         <v>100</v>
       </c>
       <c r="J41">
-        <v>59.41</v>
+        <v>59.37</v>
       </c>
       <c r="K41">
-        <v>16.29</v>
+        <v>26.57</v>
       </c>
       <c r="L41">
-        <v>0.55</v>
+        <v>0.34</v>
       </c>
       <c r="M41">
-        <v>1076.57</v>
+        <v>1757.52</v>
       </c>
       <c r="N41">
-        <v>0.27</v>
+        <v>0.45</v>
       </c>
       <c r="O41">
-        <v>594.5599999999999</v>
+        <v>596.73</v>
       </c>
       <c r="P41">
-        <v>63959</v>
+        <v>104344</v>
       </c>
       <c r="Q41">
         <v>0</v>
       </c>
       <c r="R41">
-        <v>3.2</v>
+        <v>3.31</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="42" spans="1:19">
@@ -3520,40 +3520,40 @@
         <v>1</v>
       </c>
       <c r="H42">
-        <v>64075</v>
+        <v>98323</v>
       </c>
       <c r="I42">
         <v>100</v>
       </c>
       <c r="J42">
-        <v>59.45</v>
+        <v>59.84</v>
       </c>
       <c r="K42">
-        <v>16.32</v>
+        <v>25.04</v>
       </c>
       <c r="L42">
-        <v>0.73</v>
+        <v>0.48</v>
       </c>
       <c r="M42">
-        <v>1077.8</v>
+        <v>1643.1</v>
       </c>
       <c r="N42">
-        <v>0.27</v>
+        <v>0.42</v>
       </c>
       <c r="O42">
-        <v>791.17</v>
+        <v>793.66</v>
       </c>
       <c r="P42">
-        <v>64075</v>
+        <v>98323</v>
       </c>
       <c r="Q42">
         <v>0</v>
       </c>
       <c r="R42">
-        <v>3.18</v>
+        <v>5.22</v>
       </c>
       <c r="S42">
-        <v>0</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="43" spans="1:19">
@@ -3579,37 +3579,37 @@
         <v>2</v>
       </c>
       <c r="H43">
-        <v>64522</v>
+        <v>129816</v>
       </c>
       <c r="I43">
         <v>100</v>
       </c>
       <c r="J43">
-        <v>59.38</v>
+        <v>59.81</v>
       </c>
       <c r="K43">
-        <v>16.43</v>
+        <v>33.06</v>
       </c>
       <c r="L43">
-        <v>0.73</v>
+        <v>0.36</v>
       </c>
       <c r="M43">
-        <v>1086.59</v>
+        <v>2170.47</v>
       </c>
       <c r="N43">
-        <v>0.28</v>
+        <v>0.55</v>
       </c>
       <c r="O43">
-        <v>790.2</v>
+        <v>791.96</v>
       </c>
       <c r="P43">
-        <v>64523</v>
+        <v>129816</v>
       </c>
       <c r="Q43">
         <v>0</v>
       </c>
       <c r="R43">
-        <v>3.24</v>
+        <v>4.23</v>
       </c>
       <c r="S43">
         <v>0</v>
@@ -3638,37 +3638,37 @@
         <v>3</v>
       </c>
       <c r="H44">
-        <v>70671</v>
+        <v>81380</v>
       </c>
       <c r="I44">
         <v>100</v>
       </c>
       <c r="J44">
-        <v>59.27</v>
+        <v>60.09</v>
       </c>
       <c r="K44">
-        <v>18</v>
+        <v>20.72</v>
       </c>
       <c r="L44">
-        <v>0.66</v>
+        <v>0.58</v>
       </c>
       <c r="M44">
-        <v>1192.36</v>
+        <v>1354.3</v>
       </c>
       <c r="N44">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="O44">
-        <v>789.92</v>
+        <v>787.86</v>
       </c>
       <c r="P44">
-        <v>70671</v>
+        <v>81380</v>
       </c>
       <c r="Q44">
         <v>0</v>
       </c>
       <c r="R44">
-        <v>2.68</v>
+        <v>2.61</v>
       </c>
       <c r="S44">
         <v>0</v>
@@ -3697,40 +3697,40 @@
         <v>4</v>
       </c>
       <c r="H45">
-        <v>79094</v>
+        <v>106192</v>
       </c>
       <c r="I45">
         <v>100</v>
       </c>
       <c r="J45">
-        <v>60.05</v>
+        <v>59.9</v>
       </c>
       <c r="K45">
-        <v>20.14</v>
+        <v>27.04</v>
       </c>
       <c r="L45">
-        <v>0.6</v>
+        <v>0.45</v>
       </c>
       <c r="M45">
-        <v>1317.14</v>
+        <v>1772.82</v>
       </c>
       <c r="N45">
-        <v>0.34</v>
+        <v>0.45</v>
       </c>
       <c r="O45">
-        <v>789.6900000000001</v>
+        <v>794.6799999999999</v>
       </c>
       <c r="P45">
-        <v>79094</v>
+        <v>106192</v>
       </c>
       <c r="Q45">
         <v>0</v>
       </c>
       <c r="R45">
-        <v>3.65</v>
+        <v>4.54</v>
       </c>
       <c r="S45">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="46" spans="1:19">
@@ -3756,37 +3756,37 @@
         <v>5</v>
       </c>
       <c r="H46">
-        <v>68639</v>
+        <v>85292</v>
       </c>
       <c r="I46">
         <v>100</v>
       </c>
       <c r="J46">
-        <v>59.21</v>
+        <v>59.66</v>
       </c>
       <c r="K46">
-        <v>17.48</v>
+        <v>21.72</v>
       </c>
       <c r="L46">
-        <v>0.68</v>
+        <v>0.55</v>
       </c>
       <c r="M46">
-        <v>1159.25</v>
+        <v>1429.63</v>
       </c>
       <c r="N46">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="O46">
-        <v>790.1</v>
+        <v>790.21</v>
       </c>
       <c r="P46">
-        <v>68639</v>
+        <v>85293</v>
       </c>
       <c r="Q46">
         <v>0</v>
       </c>
       <c r="R46">
-        <v>2.59</v>
+        <v>3.87</v>
       </c>
       <c r="S46">
         <v>0</v>
@@ -3815,40 +3815,40 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>67057</v>
+        <v>102840</v>
       </c>
       <c r="I47">
-        <v>100</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="J47">
-        <v>59.35</v>
+        <v>59.67</v>
       </c>
       <c r="K47">
-        <v>17.07</v>
+        <v>26.19</v>
       </c>
       <c r="L47">
-        <v>0.87</v>
+        <v>0.57</v>
       </c>
       <c r="M47">
-        <v>1129.86</v>
+        <v>1723.48</v>
       </c>
       <c r="N47">
-        <v>0.29</v>
+        <v>0.44</v>
       </c>
       <c r="O47">
-        <v>985.91</v>
+        <v>990.6900000000001</v>
       </c>
       <c r="P47">
-        <v>67057</v>
+        <v>102840</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="R47">
-        <v>3.57</v>
+        <v>5.87</v>
       </c>
       <c r="S47">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="48" spans="1:19">
@@ -3874,37 +3874,37 @@
         <v>2</v>
       </c>
       <c r="H48">
-        <v>69090</v>
+        <v>80242</v>
       </c>
       <c r="I48">
         <v>100</v>
       </c>
       <c r="J48">
-        <v>59.41</v>
+        <v>59.91</v>
       </c>
       <c r="K48">
-        <v>17.59</v>
+        <v>20.43</v>
       </c>
       <c r="L48">
-        <v>0.85</v>
+        <v>0.74</v>
       </c>
       <c r="M48">
-        <v>1162.94</v>
+        <v>1339.38</v>
       </c>
       <c r="N48">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="O48">
-        <v>983.92</v>
+        <v>984.9400000000001</v>
       </c>
       <c r="P48">
-        <v>69090</v>
+        <v>80242</v>
       </c>
       <c r="Q48">
         <v>0</v>
       </c>
       <c r="R48">
-        <v>4.39</v>
+        <v>5.44</v>
       </c>
       <c r="S48">
         <v>0</v>
@@ -3933,37 +3933,37 @@
         <v>3</v>
       </c>
       <c r="H49">
-        <v>72327</v>
+        <v>67441</v>
       </c>
       <c r="I49">
         <v>100</v>
       </c>
       <c r="J49">
-        <v>59.22</v>
+        <v>59.95</v>
       </c>
       <c r="K49">
-        <v>18.42</v>
+        <v>17.17</v>
       </c>
       <c r="L49">
-        <v>0.8100000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="M49">
-        <v>1221.33</v>
+        <v>1124.95</v>
       </c>
       <c r="N49">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="O49">
-        <v>984.48</v>
+        <v>981.84</v>
       </c>
       <c r="P49">
-        <v>72327</v>
+        <v>67442</v>
       </c>
       <c r="Q49">
         <v>0</v>
       </c>
       <c r="R49">
-        <v>3.86</v>
+        <v>3.62</v>
       </c>
       <c r="S49">
         <v>0</v>
@@ -3992,37 +3992,37 @@
         <v>4</v>
       </c>
       <c r="H50">
-        <v>69663</v>
+        <v>71968</v>
       </c>
       <c r="I50">
         <v>100</v>
       </c>
       <c r="J50">
-        <v>59.33</v>
+        <v>60.14</v>
       </c>
       <c r="K50">
-        <v>17.74</v>
+        <v>18.33</v>
       </c>
       <c r="L50">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="M50">
-        <v>1174.16</v>
+        <v>1196.67</v>
       </c>
       <c r="N50">
         <v>0.3</v>
       </c>
       <c r="O50">
-        <v>985.39</v>
+        <v>983.37</v>
       </c>
       <c r="P50">
-        <v>69663</v>
+        <v>71968</v>
       </c>
       <c r="Q50">
         <v>0</v>
       </c>
       <c r="R50">
-        <v>4.71</v>
+        <v>4.01</v>
       </c>
       <c r="S50">
         <v>0</v>
@@ -4051,37 +4051,37 @@
         <v>5</v>
       </c>
       <c r="H51">
-        <v>63832</v>
+        <v>111011</v>
       </c>
       <c r="I51">
         <v>100</v>
       </c>
       <c r="J51">
-        <v>59.36</v>
+        <v>59.98</v>
       </c>
       <c r="K51">
-        <v>16.25</v>
+        <v>28.27</v>
       </c>
       <c r="L51">
-        <v>0.92</v>
+        <v>0.53</v>
       </c>
       <c r="M51">
-        <v>1075.34</v>
+        <v>1850.8</v>
       </c>
       <c r="N51">
-        <v>0.27</v>
+        <v>0.47</v>
       </c>
       <c r="O51">
-        <v>985.77</v>
+        <v>983.1900000000001</v>
       </c>
       <c r="P51">
-        <v>63832</v>
+        <v>111012</v>
       </c>
       <c r="Q51">
         <v>0</v>
       </c>
       <c r="R51">
-        <v>3.78</v>
+        <v>5.27</v>
       </c>
       <c r="S51">
         <v>0</v>
@@ -4110,37 +4110,37 @@
         <v>1</v>
       </c>
       <c r="H52">
-        <v>52374</v>
+        <v>54907</v>
       </c>
       <c r="I52">
         <v>100</v>
       </c>
       <c r="J52">
-        <v>59.17</v>
+        <v>59.62</v>
       </c>
       <c r="K52">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="L52">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="M52">
-        <v>885.14</v>
+        <v>920.95</v>
       </c>
       <c r="N52">
         <v>0.04</v>
       </c>
       <c r="O52">
-        <v>199.35</v>
+        <v>199.32</v>
       </c>
       <c r="P52">
-        <v>52374</v>
+        <v>54907</v>
       </c>
       <c r="Q52">
         <v>0</v>
       </c>
       <c r="R52">
-        <v>1.56</v>
+        <v>3.8</v>
       </c>
       <c r="S52">
         <v>0</v>
@@ -4169,37 +4169,37 @@
         <v>2</v>
       </c>
       <c r="H53">
-        <v>51779</v>
+        <v>52966</v>
       </c>
       <c r="I53">
         <v>100</v>
       </c>
       <c r="J53">
-        <v>59.07</v>
+        <v>59.3</v>
       </c>
       <c r="K53">
-        <v>2.47</v>
+        <v>2.53</v>
       </c>
       <c r="L53">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="M53">
-        <v>876.5700000000001</v>
+        <v>893.1900000000001</v>
       </c>
       <c r="N53">
         <v>0.04</v>
       </c>
       <c r="O53">
-        <v>199.26</v>
+        <v>198.81</v>
       </c>
       <c r="P53">
-        <v>51779</v>
+        <v>52966</v>
       </c>
       <c r="Q53">
         <v>0</v>
       </c>
       <c r="R53">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="S53">
         <v>0</v>
@@ -4228,37 +4228,37 @@
         <v>3</v>
       </c>
       <c r="H54">
-        <v>50399</v>
+        <v>51837</v>
       </c>
       <c r="I54">
         <v>100</v>
       </c>
       <c r="J54">
-        <v>59.9</v>
+        <v>59.44</v>
       </c>
       <c r="K54">
-        <v>2.4</v>
+        <v>2.47</v>
       </c>
       <c r="L54">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="M54">
-        <v>841.39</v>
+        <v>872.09</v>
       </c>
       <c r="N54">
         <v>0.04</v>
       </c>
       <c r="O54">
-        <v>199.02</v>
+        <v>199.03</v>
       </c>
       <c r="P54">
-        <v>50399</v>
+        <v>51837</v>
       </c>
       <c r="Q54">
         <v>0</v>
       </c>
       <c r="R54">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="S54">
         <v>0</v>
@@ -4287,37 +4287,37 @@
         <v>4</v>
       </c>
       <c r="H55">
-        <v>51575</v>
+        <v>54953</v>
       </c>
       <c r="I55">
         <v>100</v>
       </c>
       <c r="J55">
-        <v>59.11</v>
+        <v>59.7</v>
       </c>
       <c r="K55">
-        <v>2.46</v>
+        <v>2.62</v>
       </c>
       <c r="L55">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="M55">
-        <v>872.53</v>
+        <v>920.49</v>
       </c>
       <c r="N55">
         <v>0.04</v>
       </c>
       <c r="O55">
-        <v>199.19</v>
+        <v>199.24</v>
       </c>
       <c r="P55">
-        <v>51575</v>
+        <v>54953</v>
       </c>
       <c r="Q55">
         <v>0</v>
       </c>
       <c r="R55">
-        <v>1.64</v>
+        <v>1.45</v>
       </c>
       <c r="S55">
         <v>0</v>
@@ -4346,37 +4346,37 @@
         <v>5</v>
       </c>
       <c r="H56">
-        <v>50640</v>
+        <v>54023</v>
       </c>
       <c r="I56">
         <v>100</v>
       </c>
       <c r="J56">
-        <v>59.84</v>
+        <v>59.68</v>
       </c>
       <c r="K56">
-        <v>2.41</v>
+        <v>2.58</v>
       </c>
       <c r="L56">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="M56">
-        <v>846.26</v>
+        <v>905.21</v>
       </c>
       <c r="N56">
         <v>0.04</v>
       </c>
       <c r="O56">
-        <v>199.09</v>
+        <v>199.23</v>
       </c>
       <c r="P56">
-        <v>50640</v>
+        <v>54024</v>
       </c>
       <c r="Q56">
         <v>0</v>
       </c>
       <c r="R56">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="S56">
         <v>0</v>
@@ -4405,40 +4405,40 @@
         <v>1</v>
       </c>
       <c r="H57">
-        <v>46073</v>
+        <v>51891</v>
       </c>
       <c r="I57">
         <v>100</v>
       </c>
       <c r="J57">
-        <v>59.11</v>
+        <v>59.82</v>
       </c>
       <c r="K57">
-        <v>2.2</v>
+        <v>2.47</v>
       </c>
       <c r="L57">
-        <v>0.51</v>
+        <v>0.46</v>
       </c>
       <c r="M57">
-        <v>779.45</v>
+        <v>867.45</v>
       </c>
       <c r="N57">
         <v>0.04</v>
       </c>
       <c r="O57">
-        <v>397.26</v>
+        <v>395.92</v>
       </c>
       <c r="P57">
-        <v>46073</v>
+        <v>51891</v>
       </c>
       <c r="Q57">
         <v>0</v>
       </c>
       <c r="R57">
-        <v>3.74</v>
+        <v>2.87</v>
       </c>
       <c r="S57">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:19">
@@ -4464,37 +4464,37 @@
         <v>2</v>
       </c>
       <c r="H58">
-        <v>47301</v>
+        <v>51803</v>
       </c>
       <c r="I58">
         <v>100</v>
       </c>
       <c r="J58">
-        <v>59.84</v>
+        <v>59.51</v>
       </c>
       <c r="K58">
-        <v>2.26</v>
+        <v>2.47</v>
       </c>
       <c r="L58">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="M58">
-        <v>790.46</v>
+        <v>870.49</v>
       </c>
       <c r="N58">
         <v>0.04</v>
       </c>
       <c r="O58">
-        <v>396.79</v>
+        <v>397.5</v>
       </c>
       <c r="P58">
-        <v>47301</v>
+        <v>51803</v>
       </c>
       <c r="Q58">
         <v>0</v>
       </c>
       <c r="R58">
-        <v>3.36</v>
+        <v>3.2</v>
       </c>
       <c r="S58">
         <v>0</v>
@@ -4523,40 +4523,40 @@
         <v>3</v>
       </c>
       <c r="H59">
-        <v>47672</v>
+        <v>54163</v>
       </c>
       <c r="I59">
         <v>100</v>
       </c>
       <c r="J59">
-        <v>59.54</v>
+        <v>59.61</v>
       </c>
       <c r="K59">
-        <v>2.27</v>
+        <v>2.58</v>
       </c>
       <c r="L59">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="M59">
-        <v>800.67</v>
+        <v>908.62</v>
       </c>
       <c r="N59">
         <v>0.04</v>
       </c>
       <c r="O59">
-        <v>396.79</v>
+        <v>397.06</v>
       </c>
       <c r="P59">
-        <v>47672</v>
+        <v>54163</v>
       </c>
       <c r="Q59">
         <v>0</v>
       </c>
       <c r="R59">
-        <v>3.55</v>
+        <v>2.9</v>
       </c>
       <c r="S59">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="60" spans="1:19">
@@ -4582,37 +4582,37 @@
         <v>4</v>
       </c>
       <c r="H60">
-        <v>46461</v>
+        <v>48835</v>
       </c>
       <c r="I60">
         <v>100</v>
       </c>
       <c r="J60">
-        <v>59.59</v>
+        <v>59.82</v>
       </c>
       <c r="K60">
-        <v>2.22</v>
+        <v>2.33</v>
       </c>
       <c r="L60">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="M60">
-        <v>779.6799999999999</v>
+        <v>816.37</v>
       </c>
       <c r="N60">
         <v>0.04</v>
       </c>
       <c r="O60">
-        <v>397.27</v>
+        <v>396.46</v>
       </c>
       <c r="P60">
-        <v>46461</v>
+        <v>48835</v>
       </c>
       <c r="Q60">
         <v>0</v>
       </c>
       <c r="R60">
-        <v>4.17</v>
+        <v>3.98</v>
       </c>
       <c r="S60">
         <v>0</v>
@@ -4641,37 +4641,37 @@
         <v>5</v>
       </c>
       <c r="H61">
-        <v>47411</v>
+        <v>47934</v>
       </c>
       <c r="I61">
         <v>100</v>
       </c>
       <c r="J61">
-        <v>60.09</v>
+        <v>59.09</v>
       </c>
       <c r="K61">
-        <v>2.26</v>
+        <v>2.29</v>
       </c>
       <c r="L61">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="M61">
-        <v>789</v>
+        <v>811.2</v>
       </c>
       <c r="N61">
         <v>0.04</v>
       </c>
       <c r="O61">
-        <v>397.02</v>
+        <v>397.91</v>
       </c>
       <c r="P61">
-        <v>47411</v>
+        <v>47934</v>
       </c>
       <c r="Q61">
         <v>0</v>
       </c>
       <c r="R61">
-        <v>4.34</v>
+        <v>3.17</v>
       </c>
       <c r="S61">
         <v>0</v>
@@ -4700,37 +4700,37 @@
         <v>1</v>
       </c>
       <c r="H62">
-        <v>45147</v>
+        <v>51708</v>
       </c>
       <c r="I62">
         <v>100</v>
       </c>
       <c r="J62">
-        <v>59.78</v>
+        <v>59.38</v>
       </c>
       <c r="K62">
-        <v>2.15</v>
+        <v>2.47</v>
       </c>
       <c r="L62">
-        <v>0.78</v>
+        <v>0.68</v>
       </c>
       <c r="M62">
-        <v>755.22</v>
+        <v>870.8</v>
       </c>
       <c r="N62">
         <v>0.04</v>
       </c>
       <c r="O62">
-        <v>590.88</v>
+        <v>594.27</v>
       </c>
       <c r="P62">
-        <v>45147</v>
+        <v>51709</v>
       </c>
       <c r="Q62">
         <v>0</v>
       </c>
       <c r="R62">
-        <v>4.56</v>
+        <v>4.69</v>
       </c>
       <c r="S62">
         <v>0</v>
@@ -4759,40 +4759,40 @@
         <v>2</v>
       </c>
       <c r="H63">
-        <v>45690</v>
+        <v>52514</v>
       </c>
       <c r="I63">
         <v>100</v>
       </c>
       <c r="J63">
-        <v>59.78</v>
+        <v>59.3</v>
       </c>
       <c r="K63">
-        <v>2.18</v>
+        <v>2.5</v>
       </c>
       <c r="L63">
-        <v>0.78</v>
+        <v>0.67</v>
       </c>
       <c r="M63">
-        <v>764.3</v>
+        <v>885.5599999999999</v>
       </c>
       <c r="N63">
         <v>0.04</v>
       </c>
       <c r="O63">
-        <v>593.87</v>
+        <v>592.66</v>
       </c>
       <c r="P63">
-        <v>45690</v>
+        <v>52514</v>
       </c>
       <c r="Q63">
         <v>0</v>
       </c>
       <c r="R63">
-        <v>5.48</v>
+        <v>4.24</v>
       </c>
       <c r="S63">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:19">
@@ -4818,40 +4818,40 @@
         <v>3</v>
       </c>
       <c r="H64">
-        <v>44355</v>
+        <v>49339</v>
       </c>
       <c r="I64">
         <v>100</v>
       </c>
       <c r="J64">
-        <v>59.82</v>
+        <v>59.56</v>
       </c>
       <c r="K64">
-        <v>2.12</v>
+        <v>2.35</v>
       </c>
       <c r="L64">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
       <c r="M64">
-        <v>741.47</v>
+        <v>828.39</v>
       </c>
       <c r="N64">
         <v>0.04</v>
       </c>
       <c r="O64">
-        <v>594.76</v>
+        <v>593.2</v>
       </c>
       <c r="P64">
-        <v>44355</v>
+        <v>49339</v>
       </c>
       <c r="Q64">
         <v>0</v>
       </c>
       <c r="R64">
-        <v>5.99</v>
+        <v>4.19</v>
       </c>
       <c r="S64">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:19">
@@ -4877,40 +4877,40 @@
         <v>4</v>
       </c>
       <c r="H65">
-        <v>47546</v>
+        <v>50062</v>
       </c>
       <c r="I65">
         <v>100</v>
       </c>
       <c r="J65">
-        <v>59.79</v>
+        <v>59.45</v>
       </c>
       <c r="K65">
-        <v>2.27</v>
+        <v>2.39</v>
       </c>
       <c r="L65">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="M65">
-        <v>795.22</v>
+        <v>842.09</v>
       </c>
       <c r="N65">
         <v>0.04</v>
       </c>
       <c r="O65">
-        <v>593.84</v>
+        <v>591.52</v>
       </c>
       <c r="P65">
-        <v>47546</v>
+        <v>50062</v>
       </c>
       <c r="Q65">
         <v>0</v>
       </c>
       <c r="R65">
-        <v>5.75</v>
+        <v>4.08</v>
       </c>
       <c r="S65">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:19">
@@ -4936,37 +4936,37 @@
         <v>5</v>
       </c>
       <c r="H66">
-        <v>43710</v>
+        <v>51445</v>
       </c>
       <c r="I66">
         <v>100</v>
       </c>
       <c r="J66">
-        <v>59.85</v>
+        <v>59.99</v>
       </c>
       <c r="K66">
-        <v>2.08</v>
+        <v>2.45</v>
       </c>
       <c r="L66">
-        <v>0.8100000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="M66">
-        <v>730.33</v>
+        <v>857.5599999999999</v>
       </c>
       <c r="N66">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="O66">
-        <v>593.4400000000001</v>
+        <v>593.95</v>
       </c>
       <c r="P66">
-        <v>43710</v>
+        <v>51445</v>
       </c>
       <c r="Q66">
         <v>0</v>
       </c>
       <c r="R66">
-        <v>6.12</v>
+        <v>4.74</v>
       </c>
       <c r="S66">
         <v>0</v>
@@ -4995,37 +4995,37 @@
         <v>1</v>
       </c>
       <c r="H67">
-        <v>43986</v>
+        <v>49418</v>
       </c>
       <c r="I67">
         <v>100</v>
       </c>
       <c r="J67">
-        <v>59.99</v>
+        <v>59.61</v>
       </c>
       <c r="K67">
-        <v>2.1</v>
+        <v>2.36</v>
       </c>
       <c r="L67">
-        <v>1.07</v>
+        <v>0.95</v>
       </c>
       <c r="M67">
-        <v>733.22</v>
+        <v>829.02</v>
       </c>
       <c r="N67">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="O67">
-        <v>785.6799999999999</v>
+        <v>789.8200000000001</v>
       </c>
       <c r="P67">
-        <v>43986</v>
+        <v>49418</v>
       </c>
       <c r="Q67">
         <v>0</v>
       </c>
       <c r="R67">
-        <v>6.44</v>
+        <v>4.3</v>
       </c>
       <c r="S67">
         <v>0</v>
@@ -5054,37 +5054,37 @@
         <v>2</v>
       </c>
       <c r="H68">
-        <v>42851</v>
+        <v>53458</v>
       </c>
       <c r="I68">
         <v>100</v>
       </c>
       <c r="J68">
-        <v>59.91</v>
+        <v>59.52</v>
       </c>
       <c r="K68">
-        <v>2.04</v>
+        <v>2.55</v>
       </c>
       <c r="L68">
-        <v>1.1</v>
+        <v>0.88</v>
       </c>
       <c r="M68">
-        <v>715.26</v>
+        <v>898.15</v>
       </c>
       <c r="N68">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="O68">
-        <v>790.3200000000001</v>
+        <v>787.98</v>
       </c>
       <c r="P68">
-        <v>42851</v>
+        <v>53458</v>
       </c>
       <c r="Q68">
         <v>0</v>
       </c>
       <c r="R68">
-        <v>11.56</v>
+        <v>4.37</v>
       </c>
       <c r="S68">
         <v>0</v>
@@ -5113,40 +5113,40 @@
         <v>3</v>
       </c>
       <c r="H69">
-        <v>47546</v>
+        <v>50281</v>
       </c>
       <c r="I69">
         <v>100</v>
       </c>
       <c r="J69">
-        <v>59.65</v>
+        <v>59.12</v>
       </c>
       <c r="K69">
-        <v>2.27</v>
+        <v>2.4</v>
       </c>
       <c r="L69">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="M69">
-        <v>797.08</v>
+        <v>850.49</v>
       </c>
       <c r="N69">
         <v>0.04</v>
       </c>
       <c r="O69">
-        <v>787.66</v>
+        <v>786.74</v>
       </c>
       <c r="P69">
-        <v>47546</v>
+        <v>50281</v>
       </c>
       <c r="Q69">
         <v>0</v>
       </c>
       <c r="R69">
-        <v>7.54</v>
+        <v>4.62</v>
       </c>
       <c r="S69">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:19">
@@ -5172,37 +5172,37 @@
         <v>4</v>
       </c>
       <c r="H70">
-        <v>43142</v>
+        <v>49372</v>
       </c>
       <c r="I70">
         <v>100</v>
       </c>
       <c r="J70">
-        <v>60.15</v>
+        <v>59.79</v>
       </c>
       <c r="K70">
-        <v>2.06</v>
+        <v>2.35</v>
       </c>
       <c r="L70">
-        <v>1.1</v>
+        <v>0.96</v>
       </c>
       <c r="M70">
-        <v>717.24</v>
+        <v>825.76</v>
       </c>
       <c r="N70">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="O70">
-        <v>790.76</v>
+        <v>790.63</v>
       </c>
       <c r="P70">
-        <v>43142</v>
+        <v>49372</v>
       </c>
       <c r="Q70">
         <v>0</v>
       </c>
       <c r="R70">
-        <v>7.55</v>
+        <v>5.85</v>
       </c>
       <c r="S70">
         <v>0</v>
@@ -5231,40 +5231,40 @@
         <v>5</v>
       </c>
       <c r="H71">
-        <v>44519</v>
+        <v>51064</v>
       </c>
       <c r="I71">
         <v>100</v>
       </c>
       <c r="J71">
-        <v>59.67</v>
+        <v>59.39</v>
       </c>
       <c r="K71">
-        <v>2.12</v>
+        <v>2.43</v>
       </c>
       <c r="L71">
-        <v>1.06</v>
+        <v>0.92</v>
       </c>
       <c r="M71">
-        <v>746.09</v>
+        <v>859.8099999999999</v>
       </c>
       <c r="N71">
         <v>0.04</v>
       </c>
       <c r="O71">
-        <v>790.96</v>
+        <v>788.67</v>
       </c>
       <c r="P71">
-        <v>44520</v>
+        <v>51064</v>
       </c>
       <c r="Q71">
         <v>0</v>
       </c>
       <c r="R71">
-        <v>8.4</v>
+        <v>5.6</v>
       </c>
       <c r="S71">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:19">
@@ -5290,37 +5290,37 @@
         <v>1</v>
       </c>
       <c r="H72">
-        <v>46147</v>
+        <v>51528</v>
       </c>
       <c r="I72">
         <v>100</v>
       </c>
       <c r="J72">
-        <v>59.46</v>
+        <v>59.56</v>
       </c>
       <c r="K72">
-        <v>2.2</v>
+        <v>2.46</v>
       </c>
       <c r="L72">
-        <v>1.27</v>
+        <v>1.14</v>
       </c>
       <c r="M72">
-        <v>776.1</v>
+        <v>865.14</v>
       </c>
       <c r="N72">
         <v>0.04</v>
       </c>
       <c r="O72">
-        <v>985.8</v>
+        <v>983.26</v>
       </c>
       <c r="P72">
-        <v>46147</v>
+        <v>51528</v>
       </c>
       <c r="Q72">
         <v>0</v>
       </c>
       <c r="R72">
-        <v>9.710000000000001</v>
+        <v>6.08</v>
       </c>
       <c r="S72">
         <v>0</v>
@@ -5349,40 +5349,40 @@
         <v>2</v>
       </c>
       <c r="H73">
-        <v>44064</v>
+        <v>45612</v>
       </c>
       <c r="I73">
         <v>100</v>
       </c>
       <c r="J73">
-        <v>59.85</v>
+        <v>59.54</v>
       </c>
       <c r="K73">
-        <v>2.1</v>
+        <v>2.17</v>
       </c>
       <c r="L73">
         <v>1.28</v>
       </c>
       <c r="M73">
-        <v>736.24</v>
+        <v>766.0700000000001</v>
       </c>
       <c r="N73">
         <v>0.04</v>
       </c>
       <c r="O73">
-        <v>943.42</v>
+        <v>979.01</v>
       </c>
       <c r="P73">
-        <v>44064</v>
+        <v>45612</v>
       </c>
       <c r="Q73">
         <v>0</v>
       </c>
       <c r="R73">
-        <v>8</v>
+        <v>6.79</v>
       </c>
       <c r="S73">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:19">
@@ -5408,37 +5408,37 @@
         <v>3</v>
       </c>
       <c r="H74">
-        <v>38256</v>
+        <v>50456</v>
       </c>
       <c r="I74">
         <v>100</v>
       </c>
       <c r="J74">
-        <v>59.6</v>
+        <v>60.06</v>
       </c>
       <c r="K74">
-        <v>1.82</v>
+        <v>2.41</v>
       </c>
       <c r="L74">
-        <v>1.53</v>
+        <v>1.17</v>
       </c>
       <c r="M74">
-        <v>641.88</v>
+        <v>840.09</v>
       </c>
       <c r="N74">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="O74">
-        <v>985.24</v>
+        <v>983.39</v>
       </c>
       <c r="P74">
-        <v>38257</v>
+        <v>50456</v>
       </c>
       <c r="Q74">
         <v>0</v>
       </c>
       <c r="R74">
-        <v>14.75</v>
+        <v>6.15</v>
       </c>
       <c r="S74">
         <v>0</v>
@@ -5467,37 +5467,37 @@
         <v>4</v>
       </c>
       <c r="H75">
-        <v>46757</v>
+        <v>52130</v>
       </c>
       <c r="I75">
         <v>100</v>
       </c>
       <c r="J75">
-        <v>59.51</v>
+        <v>59.27</v>
       </c>
       <c r="K75">
-        <v>2.23</v>
+        <v>2.49</v>
       </c>
       <c r="L75">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="M75">
-        <v>785.7</v>
+        <v>879.53</v>
       </c>
       <c r="N75">
         <v>0.04</v>
       </c>
       <c r="O75">
-        <v>981.89</v>
+        <v>980.36</v>
       </c>
       <c r="P75">
-        <v>46757</v>
+        <v>52132</v>
       </c>
       <c r="Q75">
         <v>0</v>
       </c>
       <c r="R75">
-        <v>7.75</v>
+        <v>4.25</v>
       </c>
       <c r="S75">
         <v>0</v>
@@ -5526,40 +5526,40 @@
         <v>5</v>
       </c>
       <c r="H76">
-        <v>45323</v>
+        <v>49202</v>
       </c>
       <c r="I76">
         <v>100</v>
       </c>
       <c r="J76">
-        <v>59.96</v>
+        <v>59.39</v>
       </c>
       <c r="K76">
-        <v>2.16</v>
+        <v>2.35</v>
       </c>
       <c r="L76">
-        <v>1.26</v>
+        <v>1.16</v>
       </c>
       <c r="M76">
-        <v>755.89</v>
+        <v>828.46</v>
       </c>
       <c r="N76">
         <v>0.04</v>
       </c>
       <c r="O76">
-        <v>948.91</v>
+        <v>964.4</v>
       </c>
       <c r="P76">
-        <v>45323</v>
+        <v>49202</v>
       </c>
       <c r="Q76">
         <v>0</v>
       </c>
       <c r="R76">
-        <v>8.779999999999999</v>
+        <v>4.87</v>
       </c>
       <c r="S76">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="77" spans="1:19">
@@ -5585,37 +5585,37 @@
         <v>1</v>
       </c>
       <c r="H77">
-        <v>49607</v>
+        <v>54182</v>
       </c>
       <c r="I77">
         <v>100</v>
       </c>
       <c r="J77">
-        <v>59.93</v>
+        <v>59.89</v>
       </c>
       <c r="K77">
-        <v>2.32</v>
+        <v>4.96</v>
       </c>
       <c r="L77">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="M77">
-        <v>827.75</v>
+        <v>904.6900000000001</v>
       </c>
       <c r="N77">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="O77">
-        <v>188.63</v>
+        <v>199.25</v>
       </c>
       <c r="P77">
-        <v>49607</v>
+        <v>54182</v>
       </c>
       <c r="Q77">
         <v>0</v>
       </c>
       <c r="R77">
-        <v>8.039999999999999</v>
+        <v>3.38</v>
       </c>
       <c r="S77">
         <v>0</v>
@@ -5644,37 +5644,37 @@
         <v>2</v>
       </c>
       <c r="H78">
-        <v>48521</v>
+        <v>56670</v>
       </c>
       <c r="I78">
         <v>100</v>
       </c>
       <c r="J78">
-        <v>59.19</v>
+        <v>59.54</v>
       </c>
       <c r="K78">
-        <v>2.27</v>
+        <v>5.19</v>
       </c>
       <c r="L78">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="M78">
-        <v>819.75</v>
+        <v>951.8</v>
       </c>
       <c r="N78">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="O78">
         <v>199.2</v>
       </c>
       <c r="P78">
-        <v>48521</v>
+        <v>56670</v>
       </c>
       <c r="Q78">
         <v>0</v>
       </c>
       <c r="R78">
-        <v>8.539999999999999</v>
+        <v>3.66</v>
       </c>
       <c r="S78">
         <v>0</v>
@@ -5703,40 +5703,40 @@
         <v>3</v>
       </c>
       <c r="H79">
-        <v>47230</v>
+        <v>54797</v>
       </c>
       <c r="I79">
         <v>100</v>
       </c>
       <c r="J79">
-        <v>59.18</v>
+        <v>59.31</v>
       </c>
       <c r="K79">
-        <v>2.21</v>
+        <v>5.02</v>
       </c>
       <c r="L79">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="M79">
-        <v>798.0700000000001</v>
+        <v>923.91</v>
       </c>
       <c r="N79">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="O79">
-        <v>199.09</v>
+        <v>199.17</v>
       </c>
       <c r="P79">
-        <v>47230</v>
+        <v>54797</v>
       </c>
       <c r="Q79">
         <v>0</v>
       </c>
       <c r="R79">
-        <v>7.97</v>
+        <v>3.86</v>
       </c>
       <c r="S79">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:19">
@@ -5762,37 +5762,37 @@
         <v>4</v>
       </c>
       <c r="H80">
-        <v>45973</v>
+        <v>52391</v>
       </c>
       <c r="I80">
         <v>100</v>
       </c>
       <c r="J80">
-        <v>59.84</v>
+        <v>59.6</v>
       </c>
       <c r="K80">
-        <v>2.15</v>
+        <v>4.8</v>
       </c>
       <c r="L80">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="M80">
-        <v>768.27</v>
+        <v>879.04</v>
       </c>
       <c r="N80">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="O80">
-        <v>199.46</v>
+        <v>199.28</v>
       </c>
       <c r="P80">
-        <v>45973</v>
+        <v>52391</v>
       </c>
       <c r="Q80">
         <v>0</v>
       </c>
       <c r="R80">
-        <v>8.27</v>
+        <v>4.06</v>
       </c>
       <c r="S80">
         <v>0</v>
@@ -5821,37 +5821,37 @@
         <v>5</v>
       </c>
       <c r="H81">
-        <v>49673</v>
+        <v>55435</v>
       </c>
       <c r="I81">
         <v>100</v>
       </c>
       <c r="J81">
-        <v>59.55</v>
+        <v>59.18</v>
       </c>
       <c r="K81">
-        <v>2.32</v>
+        <v>5.08</v>
       </c>
       <c r="L81">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="M81">
-        <v>834.14</v>
+        <v>936.72</v>
       </c>
       <c r="N81">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="O81">
-        <v>188.26</v>
+        <v>199.25</v>
       </c>
       <c r="P81">
-        <v>49673</v>
+        <v>55435</v>
       </c>
       <c r="Q81">
         <v>0</v>
       </c>
       <c r="R81">
-        <v>1.46</v>
+        <v>3.89</v>
       </c>
       <c r="S81">
         <v>0</v>
@@ -5880,37 +5880,37 @@
         <v>1</v>
       </c>
       <c r="H82">
-        <v>48279</v>
+        <v>58064</v>
       </c>
       <c r="I82">
         <v>100</v>
       </c>
       <c r="J82">
-        <v>59.88</v>
+        <v>59.43</v>
       </c>
       <c r="K82">
-        <v>2.26</v>
+        <v>5.32</v>
       </c>
       <c r="L82">
-        <v>0.49</v>
+        <v>0.41</v>
       </c>
       <c r="M82">
-        <v>806.26</v>
+        <v>977.01</v>
       </c>
       <c r="N82">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="O82">
-        <v>397.31</v>
+        <v>397.56</v>
       </c>
       <c r="P82">
-        <v>48279</v>
+        <v>58064</v>
       </c>
       <c r="Q82">
         <v>0</v>
       </c>
       <c r="R82">
-        <v>9.369999999999999</v>
+        <v>4.71</v>
       </c>
       <c r="S82">
         <v>0</v>
@@ -5939,37 +5939,37 @@
         <v>2</v>
       </c>
       <c r="H83">
-        <v>45929</v>
+        <v>46889</v>
       </c>
       <c r="I83">
         <v>100</v>
       </c>
       <c r="J83">
-        <v>59.75</v>
+        <v>59.23</v>
       </c>
       <c r="K83">
-        <v>2.15</v>
+        <v>4.29</v>
       </c>
       <c r="L83">
         <v>0.5</v>
       </c>
       <c r="M83">
-        <v>768.6900000000001</v>
+        <v>791.64</v>
       </c>
       <c r="N83">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O83">
-        <v>387.95</v>
+        <v>396.82</v>
       </c>
       <c r="P83">
-        <v>45929</v>
+        <v>46889</v>
       </c>
       <c r="Q83">
         <v>0</v>
       </c>
       <c r="R83">
-        <v>9.800000000000001</v>
+        <v>4.94</v>
       </c>
       <c r="S83">
         <v>0</v>
@@ -5998,37 +5998,37 @@
         <v>3</v>
       </c>
       <c r="H84">
-        <v>49183</v>
+        <v>51088</v>
       </c>
       <c r="I84">
         <v>100</v>
       </c>
       <c r="J84">
-        <v>59.61</v>
+        <v>59.63</v>
       </c>
       <c r="K84">
-        <v>2.3</v>
+        <v>4.68</v>
       </c>
       <c r="L84">
         <v>0.46</v>
       </c>
       <c r="M84">
-        <v>825.08</v>
+        <v>856.75</v>
       </c>
       <c r="N84">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="O84">
-        <v>375.81</v>
+        <v>397.31</v>
       </c>
       <c r="P84">
-        <v>49183</v>
+        <v>51089</v>
       </c>
       <c r="Q84">
         <v>0</v>
       </c>
       <c r="R84">
-        <v>9.94</v>
+        <v>4.06</v>
       </c>
       <c r="S84">
         <v>0</v>
@@ -6057,37 +6057,37 @@
         <v>4</v>
       </c>
       <c r="H85">
-        <v>46969</v>
+        <v>54610</v>
       </c>
       <c r="I85">
         <v>100</v>
       </c>
       <c r="J85">
-        <v>59.39</v>
+        <v>59.55</v>
       </c>
       <c r="K85">
-        <v>2.19</v>
+        <v>5</v>
       </c>
       <c r="L85">
-        <v>0.48</v>
+        <v>0.43</v>
       </c>
       <c r="M85">
-        <v>790.86</v>
+        <v>917.04</v>
       </c>
       <c r="N85">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="O85">
-        <v>380.17</v>
+        <v>396.92</v>
       </c>
       <c r="P85">
-        <v>46969</v>
+        <v>54610</v>
       </c>
       <c r="Q85">
         <v>0</v>
       </c>
       <c r="R85">
-        <v>10.51</v>
+        <v>5.32</v>
       </c>
       <c r="S85">
         <v>0</v>
@@ -6116,40 +6116,40 @@
         <v>5</v>
       </c>
       <c r="H86">
-        <v>33441</v>
+        <v>47035</v>
       </c>
       <c r="I86">
-        <v>99.2</v>
+        <v>100</v>
       </c>
       <c r="J86">
-        <v>60</v>
+        <v>59.86</v>
       </c>
       <c r="K86">
-        <v>1.56</v>
+        <v>4.31</v>
       </c>
       <c r="L86">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="M86">
-        <v>557.35</v>
+        <v>785.75</v>
       </c>
       <c r="N86">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O86">
-        <v>304.37</v>
+        <v>396.03</v>
       </c>
       <c r="P86">
-        <v>33445</v>
+        <v>47035</v>
       </c>
       <c r="Q86">
-        <v>269</v>
+        <v>0</v>
       </c>
       <c r="R86">
-        <v>21.68</v>
+        <v>4.99</v>
       </c>
       <c r="S86">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="87" spans="1:19">
@@ -6175,40 +6175,40 @@
         <v>1</v>
       </c>
       <c r="H87">
-        <v>49060</v>
+        <v>48875</v>
       </c>
       <c r="I87">
         <v>100</v>
       </c>
       <c r="J87">
-        <v>59.72</v>
+        <v>59.17</v>
       </c>
       <c r="K87">
-        <v>2.29</v>
+        <v>4.47</v>
       </c>
       <c r="L87">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
       <c r="M87">
-        <v>821.5</v>
+        <v>826.01</v>
       </c>
       <c r="N87">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="O87">
-        <v>571.39</v>
+        <v>594.41</v>
       </c>
       <c r="P87">
-        <v>49060</v>
+        <v>48875</v>
       </c>
       <c r="Q87">
         <v>0</v>
       </c>
       <c r="R87">
-        <v>2.97</v>
+        <v>6.07</v>
       </c>
       <c r="S87">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="88" spans="1:19">
@@ -6234,40 +6234,40 @@
         <v>2</v>
       </c>
       <c r="H88">
-        <v>43553</v>
+        <v>49446</v>
       </c>
       <c r="I88">
         <v>100</v>
       </c>
       <c r="J88">
-        <v>59.79</v>
+        <v>59.55</v>
       </c>
       <c r="K88">
-        <v>2.04</v>
+        <v>4.53</v>
       </c>
       <c r="L88">
-        <v>0.74</v>
+        <v>0.71</v>
       </c>
       <c r="M88">
-        <v>728.4299999999999</v>
+        <v>830.33</v>
       </c>
       <c r="N88">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="O88">
-        <v>540.25</v>
+        <v>586.5700000000001</v>
       </c>
       <c r="P88">
-        <v>43553</v>
+        <v>49447</v>
       </c>
       <c r="Q88">
         <v>0</v>
       </c>
       <c r="R88">
-        <v>2.5</v>
+        <v>5.49</v>
       </c>
       <c r="S88">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:19">
@@ -6293,37 +6293,37 @@
         <v>3</v>
       </c>
       <c r="H89">
-        <v>42805</v>
+        <v>51101</v>
       </c>
       <c r="I89">
         <v>100</v>
       </c>
       <c r="J89">
-        <v>60.03</v>
+        <v>59.26</v>
       </c>
       <c r="K89">
-        <v>2</v>
+        <v>4.68</v>
       </c>
       <c r="L89">
-        <v>0.8100000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="M89">
-        <v>713.0599999999999</v>
+        <v>862.3200000000001</v>
       </c>
       <c r="N89">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="O89">
-        <v>577.92</v>
+        <v>594.91</v>
       </c>
       <c r="P89">
-        <v>42806</v>
+        <v>51101</v>
       </c>
       <c r="Q89">
         <v>0</v>
       </c>
       <c r="R89">
-        <v>10.86</v>
+        <v>6.51</v>
       </c>
       <c r="S89">
         <v>0</v>
@@ -6352,7 +6352,7 @@
         <v>4</v>
       </c>
       <c r="H90">
-        <v>46394</v>
+        <v>51999</v>
       </c>
       <c r="I90">
         <v>100</v>
@@ -6361,28 +6361,28 @@
         <v>59.82</v>
       </c>
       <c r="K90">
-        <v>2.17</v>
+        <v>4.76</v>
       </c>
       <c r="L90">
-        <v>0.74</v>
+        <v>0.68</v>
       </c>
       <c r="M90">
-        <v>775.5599999999999</v>
+        <v>869.26</v>
       </c>
       <c r="N90">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="O90">
-        <v>572.48</v>
+        <v>593.5599999999999</v>
       </c>
       <c r="P90">
-        <v>46394</v>
+        <v>51999</v>
       </c>
       <c r="Q90">
         <v>0</v>
       </c>
       <c r="R90">
-        <v>2.52</v>
+        <v>5.55</v>
       </c>
       <c r="S90">
         <v>0</v>
@@ -6411,40 +6411,40 @@
         <v>5</v>
       </c>
       <c r="H91">
-        <v>48702</v>
+        <v>49737</v>
       </c>
       <c r="I91">
         <v>100</v>
       </c>
       <c r="J91">
-        <v>59.68</v>
+        <v>59.44</v>
       </c>
       <c r="K91">
-        <v>2.28</v>
+        <v>4.55</v>
       </c>
       <c r="L91">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="M91">
-        <v>816.05</v>
+        <v>836.76</v>
       </c>
       <c r="N91">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="O91">
-        <v>592.49</v>
+        <v>593.65</v>
       </c>
       <c r="P91">
-        <v>48702</v>
+        <v>49737</v>
       </c>
       <c r="Q91">
         <v>0</v>
       </c>
       <c r="R91">
-        <v>2.62</v>
+        <v>6.36</v>
       </c>
       <c r="S91">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:19">
@@ -6470,40 +6470,40 @@
         <v>1</v>
       </c>
       <c r="H92">
-        <v>46233</v>
+        <v>49442</v>
       </c>
       <c r="I92">
         <v>100</v>
       </c>
       <c r="J92">
-        <v>59.96</v>
+        <v>60.25</v>
       </c>
       <c r="K92">
-        <v>2.16</v>
+        <v>4.53</v>
       </c>
       <c r="L92">
-        <v>1.01</v>
+        <v>0.96</v>
       </c>
       <c r="M92">
-        <v>771.0599999999999</v>
+        <v>820.61</v>
       </c>
       <c r="N92">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="O92">
-        <v>777.84</v>
+        <v>790.45</v>
       </c>
       <c r="P92">
-        <v>46233</v>
+        <v>49442</v>
       </c>
       <c r="Q92">
         <v>0</v>
       </c>
       <c r="R92">
-        <v>11.05</v>
+        <v>7.95</v>
       </c>
       <c r="S92">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:19">
@@ -6529,37 +6529,37 @@
         <v>2</v>
       </c>
       <c r="H93">
-        <v>43205</v>
+        <v>50172</v>
       </c>
       <c r="I93">
         <v>100</v>
       </c>
       <c r="J93">
-        <v>59.05</v>
+        <v>59.34</v>
       </c>
       <c r="K93">
-        <v>2.02</v>
+        <v>4.59</v>
       </c>
       <c r="L93">
-        <v>1.06</v>
+        <v>0.93</v>
       </c>
       <c r="M93">
-        <v>731.67</v>
+        <v>845.5</v>
       </c>
       <c r="N93">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="O93">
-        <v>778.04</v>
+        <v>785.02</v>
       </c>
       <c r="P93">
-        <v>43205</v>
+        <v>50172</v>
       </c>
       <c r="Q93">
         <v>0</v>
       </c>
       <c r="R93">
-        <v>12.18</v>
+        <v>5.2</v>
       </c>
       <c r="S93">
         <v>0.01</v>
@@ -6588,37 +6588,37 @@
         <v>3</v>
       </c>
       <c r="H94">
-        <v>44224</v>
+        <v>50150</v>
       </c>
       <c r="I94">
         <v>100</v>
       </c>
       <c r="J94">
-        <v>59.78</v>
+        <v>59.29</v>
       </c>
       <c r="K94">
-        <v>2.07</v>
+        <v>4.59</v>
       </c>
       <c r="L94">
-        <v>1.05</v>
+        <v>0.93</v>
       </c>
       <c r="M94">
-        <v>739.78</v>
+        <v>845.84</v>
       </c>
       <c r="N94">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="O94">
-        <v>774.87</v>
+        <v>788.5700000000001</v>
       </c>
       <c r="P94">
-        <v>44224</v>
+        <v>50150</v>
       </c>
       <c r="Q94">
         <v>0</v>
       </c>
       <c r="R94">
-        <v>12.6</v>
+        <v>5.44</v>
       </c>
       <c r="S94">
         <v>0</v>
@@ -6647,40 +6647,40 @@
         <v>4</v>
       </c>
       <c r="H95">
-        <v>45170</v>
+        <v>52436</v>
       </c>
       <c r="I95">
         <v>100</v>
       </c>
       <c r="J95">
-        <v>59.58</v>
+        <v>59.74</v>
       </c>
       <c r="K95">
-        <v>2.11</v>
+        <v>4.8</v>
       </c>
       <c r="L95">
-        <v>1.01</v>
+        <v>0.9</v>
       </c>
       <c r="M95">
-        <v>758.14</v>
+        <v>877.74</v>
       </c>
       <c r="N95">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="O95">
-        <v>766.5</v>
+        <v>791.95</v>
       </c>
       <c r="P95">
-        <v>45170</v>
+        <v>52436</v>
       </c>
       <c r="Q95">
         <v>0</v>
       </c>
       <c r="R95">
-        <v>12.24</v>
+        <v>5.3</v>
       </c>
       <c r="S95">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:19">
@@ -6706,37 +6706,37 @@
         <v>5</v>
       </c>
       <c r="H96">
-        <v>46705</v>
+        <v>51439</v>
       </c>
       <c r="I96">
         <v>100</v>
       </c>
       <c r="J96">
-        <v>59.05</v>
+        <v>59.93</v>
       </c>
       <c r="K96">
-        <v>2.18</v>
+        <v>4.71</v>
       </c>
       <c r="L96">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="M96">
-        <v>790.9400000000001</v>
+        <v>858.3200000000001</v>
       </c>
       <c r="N96">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="O96">
-        <v>787.4400000000001</v>
+        <v>780.7</v>
       </c>
       <c r="P96">
-        <v>46705</v>
+        <v>51440</v>
       </c>
       <c r="Q96">
         <v>0</v>
       </c>
       <c r="R96">
-        <v>14.34</v>
+        <v>4.16</v>
       </c>
       <c r="S96">
         <v>0</v>
@@ -6765,40 +6765,40 @@
         <v>1</v>
       </c>
       <c r="H97">
-        <v>44515</v>
+        <v>50558</v>
       </c>
       <c r="I97">
         <v>100</v>
       </c>
       <c r="J97">
-        <v>59.1</v>
+        <v>59.59</v>
       </c>
       <c r="K97">
-        <v>2.08</v>
+        <v>4.63</v>
       </c>
       <c r="L97">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="M97">
-        <v>753.21</v>
+        <v>848.4299999999999</v>
       </c>
       <c r="N97">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="O97">
-        <v>969.4299999999999</v>
+        <v>981.36</v>
       </c>
       <c r="P97">
-        <v>44515</v>
+        <v>50558</v>
       </c>
       <c r="Q97">
         <v>0</v>
       </c>
       <c r="R97">
-        <v>13.88</v>
+        <v>4.98</v>
       </c>
       <c r="S97">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:19">
@@ -6824,37 +6824,37 @@
         <v>2</v>
       </c>
       <c r="H98">
-        <v>45523</v>
+        <v>52051</v>
       </c>
       <c r="I98">
         <v>100</v>
       </c>
       <c r="J98">
-        <v>60.01</v>
+        <v>59.41</v>
       </c>
       <c r="K98">
-        <v>2.13</v>
+        <v>4.77</v>
       </c>
       <c r="L98">
-        <v>1.27</v>
+        <v>1.12</v>
       </c>
       <c r="M98">
-        <v>758.59</v>
+        <v>876.13</v>
       </c>
       <c r="N98">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="O98">
-        <v>961.45</v>
+        <v>980.08</v>
       </c>
       <c r="P98">
-        <v>45523</v>
+        <v>52051</v>
       </c>
       <c r="Q98">
         <v>0</v>
       </c>
       <c r="R98">
-        <v>16.15</v>
+        <v>4.88</v>
       </c>
       <c r="S98">
         <v>0</v>
@@ -6883,37 +6883,37 @@
         <v>3</v>
       </c>
       <c r="H99">
-        <v>47951</v>
+        <v>50810</v>
       </c>
       <c r="I99">
         <v>100</v>
       </c>
       <c r="J99">
-        <v>59.7</v>
+        <v>59.42</v>
       </c>
       <c r="K99">
-        <v>2.24</v>
+        <v>4.65</v>
       </c>
       <c r="L99">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="M99">
-        <v>803.2</v>
+        <v>855.1</v>
       </c>
       <c r="N99">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="O99">
-        <v>978.61</v>
+        <v>984.23</v>
       </c>
       <c r="P99">
-        <v>47951</v>
+        <v>50810</v>
       </c>
       <c r="Q99">
         <v>0</v>
       </c>
       <c r="R99">
-        <v>15.77</v>
+        <v>4.91</v>
       </c>
       <c r="S99">
         <v>0</v>
@@ -6942,40 +6942,40 @@
         <v>4</v>
       </c>
       <c r="H100">
-        <v>48434</v>
+        <v>49476</v>
       </c>
       <c r="I100">
         <v>100</v>
       </c>
       <c r="J100">
-        <v>59.8</v>
+        <v>59.9</v>
       </c>
       <c r="K100">
-        <v>2.26</v>
+        <v>4.53</v>
       </c>
       <c r="L100">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M100">
-        <v>809.9299999999999</v>
+        <v>825.98</v>
       </c>
       <c r="N100">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="O100">
-        <v>987.47</v>
+        <v>986.05</v>
       </c>
       <c r="P100">
-        <v>48434</v>
+        <v>49477</v>
       </c>
       <c r="Q100">
         <v>0</v>
       </c>
       <c r="R100">
-        <v>5.12</v>
+        <v>4.63</v>
       </c>
       <c r="S100">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:19">
@@ -7001,37 +7001,37 @@
         <v>5</v>
       </c>
       <c r="H101">
-        <v>47217</v>
+        <v>48778</v>
       </c>
       <c r="I101">
         <v>100</v>
       </c>
       <c r="J101">
-        <v>59.57</v>
+        <v>59.18</v>
       </c>
       <c r="K101">
-        <v>2.21</v>
+        <v>4.47</v>
       </c>
       <c r="L101">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="M101">
-        <v>792.63</v>
+        <v>824.23</v>
       </c>
       <c r="N101">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="O101">
-        <v>985.34</v>
+        <v>982.02</v>
       </c>
       <c r="P101">
-        <v>47217</v>
+        <v>48780</v>
       </c>
       <c r="Q101">
         <v>0</v>
       </c>
       <c r="R101">
-        <v>14.67</v>
+        <v>5.12</v>
       </c>
       <c r="S101">
         <v>0</v>
@@ -7056,7 +7056,7 @@
     <col min="4" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" customWidth="1"/>
     <col min="7" max="7" width="19.7109375" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
     <col min="10" max="10" width="24.7109375" customWidth="1"/>
     <col min="11" max="12" width="20.7109375" customWidth="1"/>
@@ -7127,40 +7127,40 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>12870.4</v>
+        <v>11894.4</v>
       </c>
       <c r="F2">
-        <v>99.194</v>
+        <v>98.02799999999999</v>
       </c>
       <c r="G2">
-        <v>59.526</v>
+        <v>59.452</v>
       </c>
       <c r="H2">
-        <v>696.1800000000001</v>
+        <v>643.386</v>
       </c>
       <c r="I2">
-        <v>4.384</v>
+        <v>4.592000000000001</v>
       </c>
       <c r="J2">
-        <v>216.214</v>
+        <v>200.04</v>
       </c>
       <c r="K2">
-        <v>11.696</v>
+        <v>10.82</v>
       </c>
       <c r="L2">
-        <v>947.756</v>
+        <v>917.5540000000001</v>
       </c>
       <c r="M2">
-        <v>12870.4</v>
+        <v>11894.4</v>
       </c>
       <c r="N2">
-        <v>105.2</v>
+        <v>237.2</v>
       </c>
       <c r="O2">
-        <v>10.336</v>
+        <v>15.134</v>
       </c>
       <c r="P2">
-        <v>0.078</v>
+        <v>0.048</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -7173,40 +7173,40 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>13283.8</v>
+        <v>12704</v>
       </c>
       <c r="F3">
         <v>100</v>
       </c>
       <c r="G3">
-        <v>59.302</v>
+        <v>59.616</v>
       </c>
       <c r="H3">
-        <v>718.538</v>
+        <v>687.178</v>
       </c>
       <c r="I3">
-        <v>0.884</v>
+        <v>0.9279999999999999</v>
       </c>
       <c r="J3">
-        <v>224.004</v>
+        <v>213.084</v>
       </c>
       <c r="K3">
-        <v>12.114</v>
+        <v>11.526</v>
       </c>
       <c r="L3">
-        <v>197.736</v>
+        <v>197.884</v>
       </c>
       <c r="M3">
-        <v>13283.8</v>
+        <v>12704</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.57</v>
+        <v>3.464</v>
       </c>
       <c r="P3">
-        <v>0.02</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -7219,40 +7219,40 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>13358.6</v>
+        <v>12756.8</v>
       </c>
       <c r="F4">
         <v>100</v>
       </c>
       <c r="G4">
-        <v>59.404</v>
+        <v>59.53400000000001</v>
       </c>
       <c r="H4">
-        <v>722.586</v>
+        <v>690.034</v>
       </c>
       <c r="I4">
-        <v>1.744</v>
+        <v>1.83</v>
       </c>
       <c r="J4">
-        <v>224.884</v>
+        <v>214.268</v>
       </c>
       <c r="K4">
-        <v>12.166</v>
+        <v>11.59</v>
       </c>
       <c r="L4">
-        <v>392.338</v>
+        <v>391.854</v>
       </c>
       <c r="M4">
-        <v>13358.6</v>
+        <v>12756.8</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>5.016</v>
+        <v>6.51</v>
       </c>
       <c r="P4">
-        <v>0.048</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -7265,40 +7265,40 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>13327.4</v>
+        <v>12503.8</v>
       </c>
       <c r="F5">
         <v>100</v>
       </c>
       <c r="G5">
-        <v>59.384</v>
+        <v>59.50600000000001</v>
       </c>
       <c r="H5">
-        <v>720.8979999999999</v>
+        <v>676.35</v>
       </c>
       <c r="I5">
-        <v>2.608</v>
+        <v>2.766</v>
       </c>
       <c r="J5">
-        <v>224.424</v>
+        <v>210.128</v>
       </c>
       <c r="K5">
-        <v>12.14</v>
+        <v>11.366</v>
       </c>
       <c r="L5">
-        <v>585.434</v>
+        <v>581.3140000000001</v>
       </c>
       <c r="M5">
-        <v>13327.4</v>
+        <v>12503.8</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>7.988</v>
+        <v>9.964</v>
       </c>
       <c r="P5">
-        <v>0.05400000000000001</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -7311,40 +7311,40 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <v>13088</v>
+        <v>12268.8</v>
       </c>
       <c r="F6">
-        <v>99.72200000000001</v>
+        <v>99.524</v>
       </c>
       <c r="G6">
-        <v>59.886</v>
+        <v>59.15599999999999</v>
       </c>
       <c r="H6">
-        <v>707.95</v>
+        <v>663.6479999999999</v>
       </c>
       <c r="I6">
-        <v>3.5</v>
+        <v>3.665999999999999</v>
       </c>
       <c r="J6">
-        <v>218.542</v>
+        <v>207.398</v>
       </c>
       <c r="K6">
-        <v>11.82</v>
+        <v>11.216</v>
       </c>
       <c r="L6">
-        <v>765.4159999999999</v>
+        <v>760.484</v>
       </c>
       <c r="M6">
-        <v>13088</v>
+        <v>12269</v>
       </c>
       <c r="N6">
-        <v>36.6</v>
+        <v>58</v>
       </c>
       <c r="O6">
-        <v>8.692</v>
+        <v>12.718</v>
       </c>
       <c r="P6">
-        <v>0.05600000000000001</v>
+        <v>0.038</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -7359,40 +7359,40 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>68393.8</v>
+        <v>86700.39999999999</v>
       </c>
       <c r="F7">
-        <v>100</v>
+        <v>99.998</v>
       </c>
       <c r="G7">
-        <v>59.334</v>
+        <v>59.92999999999999</v>
       </c>
       <c r="H7">
-        <v>17.414</v>
+        <v>22.078</v>
       </c>
       <c r="I7">
-        <v>0.858</v>
+        <v>0.706</v>
       </c>
       <c r="J7">
-        <v>1152.726</v>
+        <v>1447.056</v>
       </c>
       <c r="K7">
-        <v>0.294</v>
+        <v>0.368</v>
       </c>
       <c r="L7">
-        <v>985.0940000000001</v>
+        <v>984.8060000000002</v>
       </c>
       <c r="M7">
-        <v>68393.8</v>
+        <v>86700.8</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="O7">
-        <v>4.061999999999999</v>
+        <v>4.842000000000001</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -7405,40 +7405,40 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>68426.2</v>
+        <v>87942.2</v>
       </c>
       <c r="F8">
         <v>100</v>
       </c>
       <c r="G8">
-        <v>59.574</v>
+        <v>59.71599999999999</v>
       </c>
       <c r="H8">
-        <v>29.074</v>
+        <v>25.578</v>
       </c>
       <c r="I8">
-        <v>0.178</v>
+        <v>0.146</v>
       </c>
       <c r="J8">
-        <v>1148.43</v>
+        <v>1471.836</v>
       </c>
       <c r="K8">
-        <v>0.488</v>
+        <v>0.43</v>
       </c>
       <c r="L8">
-        <v>199.338</v>
+        <v>199.416</v>
       </c>
       <c r="M8">
-        <v>68418.60000000001</v>
+        <v>87933.60000000001</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>4.04</v>
+        <v>5.194000000000001</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -7451,40 +7451,40 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>67124.39999999999</v>
+        <v>89567.39999999999</v>
       </c>
       <c r="F9">
         <v>100</v>
       </c>
       <c r="G9">
-        <v>59.366</v>
+        <v>59.678</v>
       </c>
       <c r="H9">
-        <v>17.09</v>
+        <v>22.806</v>
       </c>
       <c r="I9">
-        <v>0.352</v>
+        <v>0.28</v>
       </c>
       <c r="J9">
-        <v>1130.686</v>
+        <v>1501.83</v>
       </c>
       <c r="K9">
-        <v>0.288</v>
+        <v>0.382</v>
       </c>
       <c r="L9">
-        <v>397.19</v>
+        <v>397.988</v>
       </c>
       <c r="M9">
-        <v>67124.39999999999</v>
+        <v>89567.39999999999</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.852</v>
+        <v>1.54</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -7497,40 +7497,40 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>69245</v>
+        <v>94635</v>
       </c>
       <c r="F10">
         <v>100</v>
       </c>
       <c r="G10">
-        <v>59.48</v>
+        <v>59.552</v>
       </c>
       <c r="H10">
-        <v>17.634</v>
+        <v>24.098</v>
       </c>
       <c r="I10">
-        <v>0.512</v>
+        <v>0.388</v>
       </c>
       <c r="J10">
-        <v>1164.148</v>
+        <v>1590.94</v>
       </c>
       <c r="K10">
-        <v>0.296</v>
+        <v>0.406</v>
       </c>
       <c r="L10">
-        <v>594.2439999999999</v>
+        <v>595.72</v>
       </c>
       <c r="M10">
-        <v>69245.2</v>
+        <v>94635</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.058</v>
+        <v>3.918</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -7543,40 +7543,40 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <v>69400.2</v>
+        <v>100200.6</v>
       </c>
       <c r="F11">
         <v>100</v>
       </c>
       <c r="G11">
-        <v>59.472</v>
+        <v>59.86</v>
       </c>
       <c r="H11">
-        <v>17.674</v>
+        <v>25.516</v>
       </c>
       <c r="I11">
-        <v>0.6799999999999999</v>
+        <v>0.484</v>
       </c>
       <c r="J11">
-        <v>1166.628</v>
+        <v>1674.064</v>
       </c>
       <c r="K11">
-        <v>0.298</v>
+        <v>0.424</v>
       </c>
       <c r="L11">
-        <v>790.216</v>
+        <v>791.674</v>
       </c>
       <c r="M11">
-        <v>69400.39999999999</v>
+        <v>100200.8</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.068</v>
+        <v>4.093999999999999</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -7591,40 +7591,40 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>46728</v>
+        <v>50334.6</v>
       </c>
       <c r="F12">
         <v>100</v>
       </c>
       <c r="G12">
-        <v>59.636</v>
+        <v>59.5</v>
       </c>
       <c r="H12">
-        <v>2.184</v>
+        <v>4.61</v>
       </c>
       <c r="I12">
-        <v>1.248</v>
+        <v>1.162</v>
       </c>
       <c r="J12">
-        <v>783.5119999999999</v>
+        <v>845.9739999999999</v>
       </c>
       <c r="K12">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="L12">
-        <v>976.46</v>
+        <v>982.7479999999999</v>
       </c>
       <c r="M12">
-        <v>46728</v>
+        <v>50335.2</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.118</v>
+        <v>4.904</v>
       </c>
       <c r="P12">
-        <v>0.004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -7637,40 +7637,40 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>48200.8</v>
+        <v>54695</v>
       </c>
       <c r="F13">
         <v>100</v>
       </c>
       <c r="G13">
-        <v>59.538</v>
+        <v>59.504</v>
       </c>
       <c r="H13">
-        <v>2.254</v>
+        <v>5.01</v>
       </c>
       <c r="I13">
-        <v>0.242</v>
+        <v>0.218</v>
       </c>
       <c r="J13">
-        <v>809.596</v>
+        <v>919.232</v>
       </c>
       <c r="K13">
-        <v>0.04</v>
+        <v>0.08399999999999999</v>
       </c>
       <c r="L13">
-        <v>194.928</v>
+        <v>199.23</v>
       </c>
       <c r="M13">
-        <v>48200.8</v>
+        <v>54695</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>6.855999999999999</v>
+        <v>3.77</v>
       </c>
       <c r="P13">
-        <v>0.002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -7683,40 +7683,40 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <v>44760.2</v>
+        <v>51537.2</v>
       </c>
       <c r="F14">
-        <v>99.84</v>
+        <v>100</v>
       </c>
       <c r="G14">
-        <v>59.726</v>
+        <v>59.54</v>
       </c>
       <c r="H14">
-        <v>2.092</v>
+        <v>4.720000000000001</v>
       </c>
       <c r="I14">
-        <v>0.496</v>
+        <v>0.46</v>
       </c>
       <c r="J14">
-        <v>749.648</v>
+        <v>865.6379999999999</v>
       </c>
       <c r="K14">
-        <v>0.038</v>
+        <v>0.078</v>
       </c>
       <c r="L14">
-        <v>369.122</v>
+        <v>396.928</v>
       </c>
       <c r="M14">
-        <v>44761</v>
+        <v>51537.4</v>
       </c>
       <c r="N14">
-        <v>53.8</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>12.26</v>
+        <v>4.804</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -7729,40 +7729,40 @@
         <v>3</v>
       </c>
       <c r="E15">
-        <v>46102.8</v>
+        <v>50231.6</v>
       </c>
       <c r="F15">
         <v>100</v>
       </c>
       <c r="G15">
-        <v>59.80800000000001</v>
+        <v>59.448</v>
       </c>
       <c r="H15">
-        <v>2.156</v>
+        <v>4.598</v>
       </c>
       <c r="I15">
-        <v>0.744</v>
+        <v>0.702</v>
       </c>
       <c r="J15">
-        <v>770.92</v>
+        <v>844.936</v>
       </c>
       <c r="K15">
-        <v>0.036</v>
+        <v>0.08</v>
       </c>
       <c r="L15">
-        <v>570.9059999999999</v>
+        <v>592.62</v>
       </c>
       <c r="M15">
-        <v>46103</v>
+        <v>50231.8</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4.294</v>
+        <v>5.996</v>
       </c>
       <c r="P15">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -7775,40 +7775,40 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>45107.4</v>
+        <v>50727.8</v>
       </c>
       <c r="F16">
         <v>100</v>
       </c>
       <c r="G16">
-        <v>59.484</v>
+        <v>59.71</v>
       </c>
       <c r="H16">
-        <v>2.108</v>
+        <v>4.644</v>
       </c>
       <c r="I16">
-        <v>1.026</v>
+        <v>0.9259999999999999</v>
       </c>
       <c r="J16">
-        <v>758.318</v>
+        <v>849.6020000000001</v>
       </c>
       <c r="K16">
-        <v>0.036</v>
+        <v>0.08</v>
       </c>
       <c r="L16">
-        <v>776.938</v>
+        <v>787.338</v>
       </c>
       <c r="M16">
-        <v>45107.4</v>
+        <v>50728</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>12.482</v>
+        <v>5.61</v>
       </c>
       <c r="P16">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -7823,37 +7823,37 @@
         <v>3</v>
       </c>
       <c r="E17">
-        <v>44109.4</v>
+        <v>49785.6</v>
       </c>
       <c r="F17">
         <v>100</v>
       </c>
       <c r="G17">
-        <v>59.676</v>
+        <v>59.564</v>
       </c>
       <c r="H17">
-        <v>2.102</v>
+        <v>2.376</v>
       </c>
       <c r="I17">
-        <v>1.318</v>
+        <v>1.172</v>
       </c>
       <c r="J17">
-        <v>739.162</v>
+        <v>835.8579999999999</v>
       </c>
       <c r="K17">
-        <v>0.038</v>
+        <v>0.04</v>
       </c>
       <c r="L17">
-        <v>969.052</v>
+        <v>978.0840000000001</v>
       </c>
       <c r="M17">
-        <v>44109.6</v>
+        <v>49786</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>9.798</v>
+        <v>5.628</v>
       </c>
       <c r="P17">
         <v>0.002</v>
@@ -7869,37 +7869,37 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <v>51353.4</v>
+        <v>53737.2</v>
       </c>
       <c r="F18">
         <v>100</v>
       </c>
       <c r="G18">
-        <v>59.41800000000001</v>
+        <v>59.548</v>
       </c>
       <c r="H18">
-        <v>2.448</v>
+        <v>2.564</v>
       </c>
       <c r="I18">
-        <v>0.234</v>
+        <v>0.222</v>
       </c>
       <c r="J18">
-        <v>864.378</v>
+        <v>902.3860000000001</v>
       </c>
       <c r="K18">
         <v>0.04</v>
       </c>
       <c r="L18">
-        <v>199.182</v>
+        <v>199.126</v>
       </c>
       <c r="M18">
-        <v>51353.4</v>
+        <v>53737.4</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.756</v>
+        <v>2.004</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -7915,37 +7915,37 @@
         <v>3</v>
       </c>
       <c r="E19">
-        <v>46983.6</v>
+        <v>50925.2</v>
       </c>
       <c r="F19">
         <v>100</v>
       </c>
       <c r="G19">
-        <v>59.634</v>
+        <v>59.57000000000001</v>
       </c>
       <c r="H19">
-        <v>2.242</v>
+        <v>2.428</v>
       </c>
       <c r="I19">
-        <v>0.504</v>
+        <v>0.468</v>
       </c>
       <c r="J19">
-        <v>787.8520000000001</v>
+        <v>854.826</v>
       </c>
       <c r="K19">
         <v>0.04</v>
       </c>
       <c r="L19">
-        <v>397.026</v>
+        <v>396.97</v>
       </c>
       <c r="M19">
-        <v>46983.6</v>
+        <v>50925.2</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.832</v>
+        <v>3.224</v>
       </c>
       <c r="P19">
         <v>0.002</v>
@@ -7961,40 +7961,40 @@
         <v>3</v>
       </c>
       <c r="E20">
-        <v>45289.6</v>
+        <v>51013.6</v>
       </c>
       <c r="F20">
         <v>100</v>
       </c>
       <c r="G20">
-        <v>59.80399999999999</v>
+        <v>59.536</v>
       </c>
       <c r="H20">
-        <v>2.16</v>
+        <v>2.432</v>
       </c>
       <c r="I20">
-        <v>0.784</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="J20">
-        <v>757.308</v>
+        <v>856.8799999999999</v>
       </c>
       <c r="K20">
-        <v>0.038</v>
+        <v>0.04</v>
       </c>
       <c r="L20">
-        <v>593.3579999999999</v>
+        <v>593.12</v>
       </c>
       <c r="M20">
-        <v>45289.6</v>
+        <v>51013.8</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>5.58</v>
+        <v>4.388</v>
       </c>
       <c r="P20">
-        <v>0.006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -8007,40 +8007,40 @@
         <v>3</v>
       </c>
       <c r="E21">
-        <v>44408.8</v>
+        <v>50718.6</v>
       </c>
       <c r="F21">
         <v>100</v>
       </c>
       <c r="G21">
-        <v>59.874</v>
+        <v>59.486</v>
       </c>
       <c r="H21">
-        <v>2.118</v>
+        <v>2.418</v>
       </c>
       <c r="I21">
-        <v>1.064</v>
+        <v>0.9279999999999999</v>
       </c>
       <c r="J21">
-        <v>741.778</v>
+        <v>852.646</v>
       </c>
       <c r="K21">
-        <v>0.034</v>
+        <v>0.04</v>
       </c>
       <c r="L21">
-        <v>789.076</v>
+        <v>788.768</v>
       </c>
       <c r="M21">
-        <v>44409</v>
+        <v>50718.6</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>8.298</v>
+        <v>4.948</v>
       </c>
       <c r="P21">
-        <v>0.004</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8067,13 +8067,14 @@
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="7" width="19.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
     <col min="10" max="10" width="24.7109375" customWidth="1"/>
     <col min="11" max="12" width="20.7109375" customWidth="1"/>
-    <col min="13" max="13" width="22.7109375" customWidth="1"/>
+    <col min="13" max="13" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -8134,40 +8135,40 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>13185.64</v>
+        <v>12425.56</v>
       </c>
       <c r="E2">
-        <v>99.78319999999999</v>
+        <v>99.5104</v>
       </c>
       <c r="F2">
-        <v>59.5004</v>
+        <v>59.4528</v>
       </c>
       <c r="G2">
-        <v>713.2303999999999</v>
+        <v>672.1192</v>
       </c>
       <c r="H2">
-        <v>2.624</v>
+        <v>2.7564</v>
       </c>
       <c r="I2">
-        <v>221.6136</v>
+        <v>208.9836</v>
       </c>
       <c r="J2">
-        <v>11.9872</v>
+        <v>11.3036</v>
       </c>
       <c r="K2">
-        <v>577.736</v>
+        <v>569.818</v>
       </c>
       <c r="L2">
-        <v>13185.64</v>
+        <v>12425.6</v>
       </c>
       <c r="M2">
-        <v>28.36</v>
+        <v>59.04</v>
       </c>
       <c r="N2">
-        <v>6.9204</v>
+        <v>9.558</v>
       </c>
       <c r="O2">
-        <v>0.0512</v>
+        <v>0.0356</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -8179,40 +8180,40 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>68517.92</v>
+        <v>91809.12</v>
       </c>
       <c r="E3">
-        <v>100</v>
+        <v>99.99959999999999</v>
       </c>
       <c r="F3">
-        <v>59.44520000000001</v>
+        <v>59.7472</v>
       </c>
       <c r="G3">
-        <v>19.7772</v>
+        <v>24.0152</v>
       </c>
       <c r="H3">
-        <v>0.516</v>
+        <v>0.4008</v>
       </c>
       <c r="I3">
-        <v>1152.5236</v>
+        <v>1537.1452</v>
       </c>
       <c r="J3">
-        <v>0.3328</v>
+        <v>0.402</v>
       </c>
       <c r="K3">
-        <v>593.2164</v>
+        <v>593.9208</v>
       </c>
       <c r="L3">
-        <v>68516.48</v>
+        <v>91807.52</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="N3">
-        <v>3.216</v>
+        <v>3.9176</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.0144</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -8224,40 +8225,40 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>46179.84</v>
+        <v>51505.24</v>
       </c>
       <c r="E4">
-        <v>99.96799999999999</v>
+        <v>100</v>
       </c>
       <c r="F4">
-        <v>59.6384</v>
+        <v>59.5404</v>
       </c>
       <c r="G4">
-        <v>2.1588</v>
+        <v>4.7164</v>
       </c>
       <c r="H4">
-        <v>0.7512000000000001</v>
+        <v>0.6936</v>
       </c>
       <c r="I4">
-        <v>774.3988000000001</v>
+        <v>865.0764</v>
       </c>
       <c r="J4">
-        <v>0.038</v>
+        <v>0.08040000000000001</v>
       </c>
       <c r="K4">
-        <v>577.6708</v>
+        <v>591.7728</v>
       </c>
       <c r="L4">
-        <v>46180.04</v>
+        <v>51505.48</v>
       </c>
       <c r="M4">
-        <v>10.76</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>9.802</v>
+        <v>5.0168</v>
       </c>
       <c r="O4">
-        <v>0.0032</v>
+        <v>0.0012</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -8269,40 +8270,40 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>46428.96</v>
+        <v>51236.04</v>
       </c>
       <c r="E5">
         <v>100</v>
       </c>
       <c r="F5">
-        <v>59.6812</v>
+        <v>59.5408</v>
       </c>
       <c r="G5">
-        <v>2.214</v>
+        <v>2.4436</v>
       </c>
       <c r="H5">
-        <v>0.7807999999999999</v>
+        <v>0.6964</v>
       </c>
       <c r="I5">
-        <v>778.0956</v>
+        <v>860.5192</v>
       </c>
       <c r="J5">
-        <v>0.038</v>
+        <v>0.04</v>
       </c>
       <c r="K5">
-        <v>589.5387999999999</v>
+        <v>591.2136</v>
       </c>
       <c r="L5">
-        <v>46429.04</v>
+        <v>51236.2</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>5.852799999999999</v>
+        <v>4.0384</v>
       </c>
       <c r="O5">
-        <v>0.0028</v>
+        <v>0.0008</v>
       </c>
     </row>
   </sheetData>
@@ -8322,14 +8323,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="2" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
     <col min="8" max="8" width="19.7109375" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
     <col min="10" max="10" width="24.7109375" customWidth="1"/>
     <col min="11" max="12" width="20.7109375" customWidth="1"/>
     <col min="13" max="13" width="21.7109375" customWidth="1"/>
@@ -8387,40 +8387,40 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>43578.09</v>
+        <v>51743.99</v>
       </c>
       <c r="D2">
-        <v>99.93780000000001</v>
+        <v>99.8775</v>
       </c>
       <c r="E2">
-        <v>59.5663</v>
+        <v>59.5703</v>
       </c>
       <c r="F2">
-        <v>184.3451</v>
+        <v>175.8236</v>
       </c>
       <c r="G2">
-        <v>1.168</v>
+        <v>1.1368</v>
       </c>
       <c r="H2">
-        <v>731.6578999999999</v>
+        <v>867.9311</v>
       </c>
       <c r="I2">
-        <v>3.099</v>
+        <v>2.9565</v>
       </c>
       <c r="J2">
-        <v>584.5405000000001</v>
+        <v>586.6813</v>
       </c>
       <c r="K2">
-        <v>43577.8</v>
+        <v>51743.7</v>
       </c>
       <c r="L2">
-        <v>9.779999999999999</v>
+        <v>14.89</v>
       </c>
       <c r="M2">
-        <v>6.4478</v>
+        <v>5.6327</v>
       </c>
       <c r="N2">
-        <v>0.0143</v>
+        <v>0.013</v>
       </c>
     </row>
   </sheetData>
